--- a/Code/Results/Cases/Case_3_9/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_9/res_line/pl_mw.xlsx
@@ -412,13 +412,13 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.601871891723647</v>
+        <v>2.60187189172359</v>
       </c>
       <c r="C2">
-        <v>0.4979793132553709</v>
+        <v>0.4979793132552288</v>
       </c>
       <c r="D2">
-        <v>0.005188516843067426</v>
+        <v>0.005188516843168678</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -433,16 +433,16 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.06727000596591104</v>
+        <v>0.06727000596592347</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.1577381981200823</v>
+        <v>0.1577381981200681</v>
       </c>
       <c r="L2">
-        <v>0.6869390238623438</v>
+        <v>0.6869390238623367</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -450,10 +450,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.244028703455001</v>
+        <v>2.244028703455115</v>
       </c>
       <c r="C3">
-        <v>0.434698836756894</v>
+        <v>0.4346988367570077</v>
       </c>
       <c r="D3">
         <v>0.005575306551614645</v>
@@ -462,7 +462,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.9194811743765</v>
+        <v>1.919481174376472</v>
       </c>
       <c r="G3">
         <v>1.470549207753351</v>
@@ -471,7 +471,7 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.06283777043628724</v>
+        <v>0.06283777043628369</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -480,7 +480,7 @@
         <v>0.1373925996954632</v>
       </c>
       <c r="L3">
-        <v>0.5931635582107546</v>
+        <v>0.5931635582107475</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -491,34 +491,34 @@
         <v>2.027267337022295</v>
       </c>
       <c r="C4">
-        <v>0.3961955878796459</v>
+        <v>0.3961955878797596</v>
       </c>
       <c r="D4">
-        <v>0.005828718514900189</v>
+        <v>0.005828718514768738</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.78638675542274</v>
+        <v>1.786386755422754</v>
       </c>
       <c r="G4">
-        <v>1.371126652240136</v>
+        <v>1.37112665224015</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.06025906338544118</v>
+        <v>0.06025906338543408</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.1251721836094433</v>
+        <v>0.1251721836094575</v>
       </c>
       <c r="L4">
-        <v>0.5365302165553629</v>
+        <v>0.53653021655537</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -529,34 +529,34 @@
         <v>1.939562999753093</v>
       </c>
       <c r="C5">
-        <v>0.3805737996755454</v>
+        <v>0.3805737996759717</v>
       </c>
       <c r="D5">
-        <v>0.005935520897264013</v>
+        <v>0.005935520897256019</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.733189536389091</v>
+        <v>1.733189536389062</v>
       </c>
       <c r="G5">
-        <v>1.331427414715023</v>
+        <v>1.331427414714994</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.05924078140081868</v>
+        <v>0.05924078140083822</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.1202521934918828</v>
+        <v>0.1202521934918757</v>
       </c>
       <c r="L5">
-        <v>0.5136560158873422</v>
+        <v>0.5136560158873351</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -564,37 +564,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.925034484949606</v>
+        <v>1.925034484949578</v>
       </c>
       <c r="C6">
-        <v>0.377983414932487</v>
+        <v>0.3779834149324586</v>
       </c>
       <c r="D6">
-        <v>0.005953456182960615</v>
+        <v>0.005953456183041439</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.724415533895154</v>
+        <v>1.724415533895169</v>
       </c>
       <c r="G6">
-        <v>1.324881990167455</v>
+        <v>1.324881990167469</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.05907357121050971</v>
+        <v>0.05907357121051859</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.1194386194644537</v>
+        <v>0.1194386194644714</v>
       </c>
       <c r="L6">
-        <v>0.509869194675872</v>
+        <v>0.5098691946758649</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -605,10 +605,10 @@
         <v>2.026082129589042</v>
       </c>
       <c r="C7">
-        <v>0.3959846539642626</v>
+        <v>0.3959846539641489</v>
       </c>
       <c r="D7">
-        <v>0.00583014515588598</v>
+        <v>0.005830145156000555</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -623,16 +623,16 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.06024520282566925</v>
+        <v>0.06024520282567103</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.1251055988770986</v>
+        <v>0.1251055988771164</v>
       </c>
       <c r="L7">
-        <v>0.5362209416432862</v>
+        <v>0.536220941643279</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -640,19 +640,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.477801135261302</v>
+        <v>2.477801135261416</v>
       </c>
       <c r="C8">
-        <v>0.4760748317325465</v>
+        <v>0.4760748317329444</v>
       </c>
       <c r="D8">
-        <v>0.00531827756065173</v>
+        <v>0.005318277560517615</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>2.065407614974546</v>
+        <v>2.065407614974532</v>
       </c>
       <c r="G8">
         <v>1.579704586494955</v>
@@ -661,13 +661,13 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.0657100631199885</v>
+        <v>0.06571006311999739</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.1506612961433689</v>
+        <v>0.1506612961433795</v>
       </c>
       <c r="L8">
         <v>0.6543880539500151</v>
@@ -678,13 +678,13 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.392913751252877</v>
+        <v>3.392913751252763</v>
       </c>
       <c r="C9">
         <v>0.6369208988101036</v>
       </c>
       <c r="D9">
-        <v>0.004465241236817796</v>
+        <v>0.004465241236940365</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -699,7 +699,7 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.07772524533827152</v>
+        <v>0.07772524533822889</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -708,7 +708,7 @@
         <v>0.203357285373329</v>
       </c>
       <c r="L9">
-        <v>0.8952934980409637</v>
+        <v>0.8952934980409779</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -716,13 +716,13 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.092335554957231</v>
+        <v>4.092335554957174</v>
       </c>
       <c r="C10">
-        <v>0.7590010829706841</v>
+        <v>0.7590010829706273</v>
       </c>
       <c r="D10">
-        <v>0.003970495933611318</v>
+        <v>0.003970495933365292</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -731,22 +731,22 @@
         <v>3.127661142069428</v>
       </c>
       <c r="G10">
-        <v>2.377829000917842</v>
+        <v>2.377829000917856</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.08760532416284406</v>
+        <v>0.0876053241628405</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.2443144926396741</v>
+        <v>0.2443144926396457</v>
       </c>
       <c r="L10">
-        <v>1.080534645056822</v>
+        <v>1.080534645056844</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -754,37 +754,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.418811886639901</v>
+        <v>4.418811886640071</v>
       </c>
       <c r="C11">
-        <v>0.8158075104722684</v>
+        <v>0.8158075104724674</v>
       </c>
       <c r="D11">
-        <v>0.003785197232856419</v>
+        <v>0.003785197232726745</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>3.352168915062151</v>
+        <v>3.352168915062208</v>
       </c>
       <c r="G11">
-        <v>2.547156726286914</v>
+        <v>2.547156726286929</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.09239634609165037</v>
+        <v>0.09239634609167169</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.2636074358935758</v>
+        <v>0.2636074358935403</v>
       </c>
       <c r="L11">
-        <v>1.167287599041074</v>
+        <v>1.167287599041082</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -792,28 +792,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.543868316875546</v>
+        <v>4.54386831687566</v>
       </c>
       <c r="C12">
-        <v>0.837542669589908</v>
+        <v>0.8375426695898796</v>
       </c>
       <c r="D12">
-        <v>0.003721892022790385</v>
+        <v>0.003721892022642947</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>3.438927556818811</v>
+        <v>3.43892755681884</v>
       </c>
       <c r="G12">
-        <v>2.612643136458928</v>
+        <v>2.612643136458956</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.0942598097243561</v>
+        <v>0.09425980972433123</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -822,7 +822,7 @@
         <v>0.271025123541456</v>
       </c>
       <c r="L12">
-        <v>1.200563216458548</v>
+        <v>1.200563216458569</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -830,19 +830,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.516867651808241</v>
+        <v>4.516867651808184</v>
       </c>
       <c r="C13">
-        <v>0.8328509423239439</v>
+        <v>0.8328509423239154</v>
       </c>
       <c r="D13">
-        <v>0.003735200167799491</v>
+        <v>0.003735200167655606</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>3.420160711729238</v>
+        <v>3.42016071172921</v>
       </c>
       <c r="G13">
         <v>2.598475334599286</v>
@@ -851,16 +851,16 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.09385617639239285</v>
+        <v>0.09385617639239641</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.2694223237372313</v>
+        <v>0.2694223237372455</v>
       </c>
       <c r="L13">
-        <v>1.193376687990927</v>
+        <v>1.193376687990934</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -868,34 +868,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.429070305664595</v>
+        <v>4.429070305664652</v>
       </c>
       <c r="C14">
-        <v>0.8175909333381242</v>
+        <v>0.8175909333384084</v>
       </c>
       <c r="D14">
-        <v>0.003779844209471861</v>
+        <v>0.003779844209223171</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>3.359270135265973</v>
+        <v>3.359270135266001</v>
       </c>
       <c r="G14">
-        <v>2.55251575057639</v>
+        <v>2.552515750576404</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.09254862724388602</v>
+        <v>0.09254862724385049</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.2642153469617412</v>
+        <v>0.2642153469617483</v>
       </c>
       <c r="L14">
         <v>1.170016287456725</v>
@@ -906,13 +906,13 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.375485191956614</v>
+        <v>4.375485191956557</v>
       </c>
       <c r="C15">
-        <v>0.808274202063302</v>
+        <v>0.8082742020630178</v>
       </c>
       <c r="D15">
-        <v>0.003808121358094496</v>
+        <v>0.003808121358234828</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -927,16 +927,16 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.09175433458115378</v>
+        <v>0.09175433458111115</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.2610410300388821</v>
+        <v>0.2610410300388608</v>
       </c>
       <c r="L15">
-        <v>1.155764746022768</v>
+        <v>1.155764746022754</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -944,13 +944,13 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.071185837697442</v>
+        <v>4.071185837697556</v>
       </c>
       <c r="C16">
-        <v>0.7553176009985236</v>
+        <v>0.7553176009987794</v>
       </c>
       <c r="D16">
-        <v>0.003983499068269225</v>
+        <v>0.003983499068287877</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -965,16 +965,16 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.08729872740170563</v>
+        <v>0.0872987274017234</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.2430683420752757</v>
+        <v>0.2430683420753041</v>
       </c>
       <c r="L16">
-        <v>1.074920648465898</v>
+        <v>1.074920648465877</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -985,10 +985,10 @@
         <v>3.886790844376833</v>
       </c>
       <c r="C17">
-        <v>0.7231834102759649</v>
+        <v>0.7231834102759365</v>
       </c>
       <c r="D17">
-        <v>0.004102024334951437</v>
+        <v>0.004102024334967425</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1003,13 +1003,13 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.08464569889023821</v>
+        <v>0.08464569889022755</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.2322232798210209</v>
+        <v>0.2322232798210138</v>
       </c>
       <c r="L17">
         <v>1.026006701680572</v>
@@ -1020,22 +1020,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.781497806464643</v>
+        <v>3.781497806464529</v>
       </c>
       <c r="C18">
         <v>0.7048175785117792</v>
       </c>
       <c r="D18">
-        <v>0.004173860084988767</v>
+        <v>0.004173860085209924</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>2.91668476522122</v>
+        <v>2.916684765221191</v>
       </c>
       <c r="G18">
-        <v>2.218890852938998</v>
+        <v>2.218890852939012</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1047,10 +1047,10 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.2260466011882869</v>
+        <v>0.2260466011882656</v>
       </c>
       <c r="L18">
-        <v>0.9981021713097959</v>
+        <v>0.9981021713098102</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1058,13 +1058,13 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.745972402282064</v>
+        <v>3.745972402282177</v>
       </c>
       <c r="C19">
-        <v>0.6986181498813835</v>
+        <v>0.6986181498813551</v>
       </c>
       <c r="D19">
-        <v>0.004198779944511344</v>
+        <v>0.00419877994428397</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1073,22 +1073,22 @@
         <v>2.892751519494396</v>
       </c>
       <c r="G19">
-        <v>2.2008726350426</v>
+        <v>2.200872635042572</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.08264438573552013</v>
+        <v>0.08264438573553434</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.2239653062492692</v>
+        <v>0.2239653062492764</v>
       </c>
       <c r="L19">
-        <v>0.9886917056639675</v>
+        <v>0.9886917056639533</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1096,13 +1096,13 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.906339137693294</v>
+        <v>3.90633913769318</v>
       </c>
       <c r="C20">
-        <v>0.7265917728741442</v>
+        <v>0.7265917728741726</v>
       </c>
       <c r="D20">
-        <v>0.004089020346624395</v>
+        <v>0.004089020346721206</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1111,22 +1111,22 @@
         <v>3.001084162159856</v>
       </c>
       <c r="G20">
-        <v>2.282450633082945</v>
+        <v>2.282450633082973</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.08492523079133818</v>
+        <v>0.0849252307913595</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.2333713159350097</v>
+        <v>0.2333713159349529</v>
       </c>
       <c r="L20">
-        <v>1.031189470923543</v>
+        <v>1.031189470923536</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1134,37 +1134,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.45481776883264</v>
+        <v>4.454817768832584</v>
       </c>
       <c r="C21">
-        <v>0.8220667371055299</v>
+        <v>0.8220667371057857</v>
       </c>
       <c r="D21">
-        <v>0.003766534724388038</v>
+        <v>0.00376653472439159</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>3.377105735078516</v>
+        <v>3.377105735078459</v>
       </c>
       <c r="G21">
-        <v>2.56597644392312</v>
+        <v>2.565976443923105</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.09293129368743891</v>
+        <v>0.09293129368742825</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.2657415806919445</v>
+        <v>0.2657415806919232</v>
       </c>
       <c r="L21">
-        <v>1.176865713063378</v>
+        <v>1.176865713063393</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1172,28 +1172,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.821730619872312</v>
+        <v>4.821730619872369</v>
       </c>
       <c r="C22">
-        <v>0.8857932743816548</v>
+        <v>0.8857932743814558</v>
       </c>
       <c r="D22">
-        <v>0.003596469278393855</v>
+        <v>0.003596469278319248</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>3.633155389168707</v>
+        <v>3.633155389168678</v>
       </c>
       <c r="G22">
-        <v>2.759348351552092</v>
+        <v>2.759348351552063</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.0984542878257102</v>
+        <v>0.09845428782570309</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1210,19 +1210,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.62504327199423</v>
+        <v>4.625043271994343</v>
       </c>
       <c r="C23">
         <v>0.8516445033402249</v>
       </c>
       <c r="D23">
-        <v>0.003683076791730855</v>
+        <v>0.003683076791750395</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>3.495463231936753</v>
+        <v>3.495463231936782</v>
       </c>
       <c r="G23">
         <v>2.655331886491481</v>
@@ -1237,7 +1237,7 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.2758479352715071</v>
+        <v>0.2758479352714929</v>
       </c>
       <c r="L23">
         <v>1.222175602219679</v>
@@ -1248,37 +1248,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.897499134698307</v>
+        <v>3.897499134698364</v>
       </c>
       <c r="C24">
-        <v>0.7250505170691781</v>
+        <v>0.7250505170696044</v>
       </c>
       <c r="D24">
-        <v>0.004094888027661447</v>
+        <v>0.004094888027898591</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>2.995092898232258</v>
+        <v>2.995092898232286</v>
       </c>
       <c r="G24">
-        <v>2.277937724682701</v>
+        <v>2.277937724682687</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.0847987714975531</v>
+        <v>0.08479877149757087</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.2328521084769477</v>
+        <v>0.232852108476969</v>
       </c>
       <c r="L24">
-        <v>1.028845670738022</v>
+        <v>1.028845670737994</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1289,10 +1289,10 @@
         <v>3.141329916822258</v>
       </c>
       <c r="C25">
-        <v>0.5928495255402311</v>
+        <v>0.5928495255400321</v>
       </c>
       <c r="D25">
-        <v>0.00467612446711474</v>
+        <v>0.004676124467003717</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1307,16 +1307,16 @@
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.07431072189726606</v>
+        <v>0.07431072189724475</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.1887611205070883</v>
+        <v>0.1887611205070812</v>
       </c>
       <c r="L25">
-        <v>0.8288848611433011</v>
+        <v>0.828884861143294</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_9/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_9/res_line/pl_mw.xlsx
@@ -412,13 +412,13 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.60187189172359</v>
+        <v>2.601871891723647</v>
       </c>
       <c r="C2">
-        <v>0.4979793132552288</v>
+        <v>0.4979793132553709</v>
       </c>
       <c r="D2">
-        <v>0.005188516843168678</v>
+        <v>0.005188516843067426</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -433,16 +433,16 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.06727000596592347</v>
+        <v>0.06727000596591104</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.1577381981200681</v>
+        <v>0.1577381981200823</v>
       </c>
       <c r="L2">
-        <v>0.6869390238623367</v>
+        <v>0.6869390238623438</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -450,10 +450,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.244028703455115</v>
+        <v>2.244028703455001</v>
       </c>
       <c r="C3">
-        <v>0.4346988367570077</v>
+        <v>0.434698836756894</v>
       </c>
       <c r="D3">
         <v>0.005575306551614645</v>
@@ -462,7 +462,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.919481174376472</v>
+        <v>1.9194811743765</v>
       </c>
       <c r="G3">
         <v>1.470549207753351</v>
@@ -471,7 +471,7 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.06283777043628369</v>
+        <v>0.06283777043628724</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -480,7 +480,7 @@
         <v>0.1373925996954632</v>
       </c>
       <c r="L3">
-        <v>0.5931635582107475</v>
+        <v>0.5931635582107546</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -491,34 +491,34 @@
         <v>2.027267337022295</v>
       </c>
       <c r="C4">
-        <v>0.3961955878797596</v>
+        <v>0.3961955878796459</v>
       </c>
       <c r="D4">
-        <v>0.005828718514768738</v>
+        <v>0.005828718514900189</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.786386755422754</v>
+        <v>1.78638675542274</v>
       </c>
       <c r="G4">
-        <v>1.37112665224015</v>
+        <v>1.371126652240136</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.06025906338543408</v>
+        <v>0.06025906338544118</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.1251721836094575</v>
+        <v>0.1251721836094433</v>
       </c>
       <c r="L4">
-        <v>0.53653021655537</v>
+        <v>0.5365302165553629</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -529,34 +529,34 @@
         <v>1.939562999753093</v>
       </c>
       <c r="C5">
-        <v>0.3805737996759717</v>
+        <v>0.3805737996755454</v>
       </c>
       <c r="D5">
-        <v>0.005935520897256019</v>
+        <v>0.005935520897264013</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.733189536389062</v>
+        <v>1.733189536389091</v>
       </c>
       <c r="G5">
-        <v>1.331427414714994</v>
+        <v>1.331427414715023</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.05924078140083822</v>
+        <v>0.05924078140081868</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.1202521934918757</v>
+        <v>0.1202521934918828</v>
       </c>
       <c r="L5">
-        <v>0.5136560158873351</v>
+        <v>0.5136560158873422</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -564,37 +564,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.925034484949578</v>
+        <v>1.925034484949606</v>
       </c>
       <c r="C6">
-        <v>0.3779834149324586</v>
+        <v>0.377983414932487</v>
       </c>
       <c r="D6">
-        <v>0.005953456183041439</v>
+        <v>0.005953456182960615</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.724415533895169</v>
+        <v>1.724415533895154</v>
       </c>
       <c r="G6">
-        <v>1.324881990167469</v>
+        <v>1.324881990167455</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.05907357121051859</v>
+        <v>0.05907357121050971</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.1194386194644714</v>
+        <v>0.1194386194644537</v>
       </c>
       <c r="L6">
-        <v>0.5098691946758649</v>
+        <v>0.509869194675872</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -605,10 +605,10 @@
         <v>2.026082129589042</v>
       </c>
       <c r="C7">
-        <v>0.3959846539641489</v>
+        <v>0.3959846539642626</v>
       </c>
       <c r="D7">
-        <v>0.005830145156000555</v>
+        <v>0.00583014515588598</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -623,16 +623,16 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.06024520282567103</v>
+        <v>0.06024520282566925</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.1251055988771164</v>
+        <v>0.1251055988770986</v>
       </c>
       <c r="L7">
-        <v>0.536220941643279</v>
+        <v>0.5362209416432862</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -640,19 +640,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.477801135261416</v>
+        <v>2.477801135261302</v>
       </c>
       <c r="C8">
-        <v>0.4760748317329444</v>
+        <v>0.4760748317325465</v>
       </c>
       <c r="D8">
-        <v>0.005318277560517615</v>
+        <v>0.00531827756065173</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>2.065407614974532</v>
+        <v>2.065407614974546</v>
       </c>
       <c r="G8">
         <v>1.579704586494955</v>
@@ -661,13 +661,13 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.06571006311999739</v>
+        <v>0.0657100631199885</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.1506612961433795</v>
+        <v>0.1506612961433689</v>
       </c>
       <c r="L8">
         <v>0.6543880539500151</v>
@@ -678,13 +678,13 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.392913751252763</v>
+        <v>3.392913751252877</v>
       </c>
       <c r="C9">
         <v>0.6369208988101036</v>
       </c>
       <c r="D9">
-        <v>0.004465241236940365</v>
+        <v>0.004465241236817796</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -699,7 +699,7 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.07772524533822889</v>
+        <v>0.07772524533827152</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -708,7 +708,7 @@
         <v>0.203357285373329</v>
       </c>
       <c r="L9">
-        <v>0.8952934980409779</v>
+        <v>0.8952934980409637</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -716,13 +716,13 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.092335554957174</v>
+        <v>4.092335554957231</v>
       </c>
       <c r="C10">
-        <v>0.7590010829706273</v>
+        <v>0.7590010829706841</v>
       </c>
       <c r="D10">
-        <v>0.003970495933365292</v>
+        <v>0.003970495933611318</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -731,22 +731,22 @@
         <v>3.127661142069428</v>
       </c>
       <c r="G10">
-        <v>2.377829000917856</v>
+        <v>2.377829000917842</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.0876053241628405</v>
+        <v>0.08760532416284406</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.2443144926396457</v>
+        <v>0.2443144926396741</v>
       </c>
       <c r="L10">
-        <v>1.080534645056844</v>
+        <v>1.080534645056822</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -754,37 +754,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.418811886640071</v>
+        <v>4.418811886639901</v>
       </c>
       <c r="C11">
-        <v>0.8158075104724674</v>
+        <v>0.8158075104722684</v>
       </c>
       <c r="D11">
-        <v>0.003785197232726745</v>
+        <v>0.003785197232856419</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>3.352168915062208</v>
+        <v>3.352168915062151</v>
       </c>
       <c r="G11">
-        <v>2.547156726286929</v>
+        <v>2.547156726286914</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.09239634609167169</v>
+        <v>0.09239634609165037</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.2636074358935403</v>
+        <v>0.2636074358935758</v>
       </c>
       <c r="L11">
-        <v>1.167287599041082</v>
+        <v>1.167287599041074</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -792,28 +792,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.54386831687566</v>
+        <v>4.543868316875546</v>
       </c>
       <c r="C12">
-        <v>0.8375426695898796</v>
+        <v>0.837542669589908</v>
       </c>
       <c r="D12">
-        <v>0.003721892022642947</v>
+        <v>0.003721892022790385</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>3.43892755681884</v>
+        <v>3.438927556818811</v>
       </c>
       <c r="G12">
-        <v>2.612643136458956</v>
+        <v>2.612643136458928</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.09425980972433123</v>
+        <v>0.0942598097243561</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -822,7 +822,7 @@
         <v>0.271025123541456</v>
       </c>
       <c r="L12">
-        <v>1.200563216458569</v>
+        <v>1.200563216458548</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -830,19 +830,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.516867651808184</v>
+        <v>4.516867651808241</v>
       </c>
       <c r="C13">
-        <v>0.8328509423239154</v>
+        <v>0.8328509423239439</v>
       </c>
       <c r="D13">
-        <v>0.003735200167655606</v>
+        <v>0.003735200167799491</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>3.42016071172921</v>
+        <v>3.420160711729238</v>
       </c>
       <c r="G13">
         <v>2.598475334599286</v>
@@ -851,16 +851,16 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.09385617639239641</v>
+        <v>0.09385617639239285</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.2694223237372455</v>
+        <v>0.2694223237372313</v>
       </c>
       <c r="L13">
-        <v>1.193376687990934</v>
+        <v>1.193376687990927</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -868,34 +868,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.429070305664652</v>
+        <v>4.429070305664595</v>
       </c>
       <c r="C14">
-        <v>0.8175909333384084</v>
+        <v>0.8175909333381242</v>
       </c>
       <c r="D14">
-        <v>0.003779844209223171</v>
+        <v>0.003779844209471861</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>3.359270135266001</v>
+        <v>3.359270135265973</v>
       </c>
       <c r="G14">
-        <v>2.552515750576404</v>
+        <v>2.55251575057639</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.09254862724385049</v>
+        <v>0.09254862724388602</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.2642153469617483</v>
+        <v>0.2642153469617412</v>
       </c>
       <c r="L14">
         <v>1.170016287456725</v>
@@ -906,13 +906,13 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.375485191956557</v>
+        <v>4.375485191956614</v>
       </c>
       <c r="C15">
-        <v>0.8082742020630178</v>
+        <v>0.808274202063302</v>
       </c>
       <c r="D15">
-        <v>0.003808121358234828</v>
+        <v>0.003808121358094496</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -927,16 +927,16 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.09175433458111115</v>
+        <v>0.09175433458115378</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.2610410300388608</v>
+        <v>0.2610410300388821</v>
       </c>
       <c r="L15">
-        <v>1.155764746022754</v>
+        <v>1.155764746022768</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -944,13 +944,13 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.071185837697556</v>
+        <v>4.071185837697442</v>
       </c>
       <c r="C16">
-        <v>0.7553176009987794</v>
+        <v>0.7553176009985236</v>
       </c>
       <c r="D16">
-        <v>0.003983499068287877</v>
+        <v>0.003983499068269225</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -965,16 +965,16 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.0872987274017234</v>
+        <v>0.08729872740170563</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.2430683420753041</v>
+        <v>0.2430683420752757</v>
       </c>
       <c r="L16">
-        <v>1.074920648465877</v>
+        <v>1.074920648465898</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -985,10 +985,10 @@
         <v>3.886790844376833</v>
       </c>
       <c r="C17">
-        <v>0.7231834102759365</v>
+        <v>0.7231834102759649</v>
       </c>
       <c r="D17">
-        <v>0.004102024334967425</v>
+        <v>0.004102024334951437</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1003,13 +1003,13 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.08464569889022755</v>
+        <v>0.08464569889023821</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.2322232798210138</v>
+        <v>0.2322232798210209</v>
       </c>
       <c r="L17">
         <v>1.026006701680572</v>
@@ -1020,22 +1020,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.781497806464529</v>
+        <v>3.781497806464643</v>
       </c>
       <c r="C18">
         <v>0.7048175785117792</v>
       </c>
       <c r="D18">
-        <v>0.004173860085209924</v>
+        <v>0.004173860084988767</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>2.916684765221191</v>
+        <v>2.91668476522122</v>
       </c>
       <c r="G18">
-        <v>2.218890852939012</v>
+        <v>2.218890852938998</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1047,10 +1047,10 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.2260466011882656</v>
+        <v>0.2260466011882869</v>
       </c>
       <c r="L18">
-        <v>0.9981021713098102</v>
+        <v>0.9981021713097959</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1058,13 +1058,13 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.745972402282177</v>
+        <v>3.745972402282064</v>
       </c>
       <c r="C19">
-        <v>0.6986181498813551</v>
+        <v>0.6986181498813835</v>
       </c>
       <c r="D19">
-        <v>0.00419877994428397</v>
+        <v>0.004198779944511344</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1073,22 +1073,22 @@
         <v>2.892751519494396</v>
       </c>
       <c r="G19">
-        <v>2.200872635042572</v>
+        <v>2.2008726350426</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.08264438573553434</v>
+        <v>0.08264438573552013</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.2239653062492764</v>
+        <v>0.2239653062492692</v>
       </c>
       <c r="L19">
-        <v>0.9886917056639533</v>
+        <v>0.9886917056639675</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1096,13 +1096,13 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.90633913769318</v>
+        <v>3.906339137693294</v>
       </c>
       <c r="C20">
-        <v>0.7265917728741726</v>
+        <v>0.7265917728741442</v>
       </c>
       <c r="D20">
-        <v>0.004089020346721206</v>
+        <v>0.004089020346624395</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1111,22 +1111,22 @@
         <v>3.001084162159856</v>
       </c>
       <c r="G20">
-        <v>2.282450633082973</v>
+        <v>2.282450633082945</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.0849252307913595</v>
+        <v>0.08492523079133818</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.2333713159349529</v>
+        <v>0.2333713159350097</v>
       </c>
       <c r="L20">
-        <v>1.031189470923536</v>
+        <v>1.031189470923543</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1134,37 +1134,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.454817768832584</v>
+        <v>4.45481776883264</v>
       </c>
       <c r="C21">
-        <v>0.8220667371057857</v>
+        <v>0.8220667371055299</v>
       </c>
       <c r="D21">
-        <v>0.00376653472439159</v>
+        <v>0.003766534724388038</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>3.377105735078459</v>
+        <v>3.377105735078516</v>
       </c>
       <c r="G21">
-        <v>2.565976443923105</v>
+        <v>2.56597644392312</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.09293129368742825</v>
+        <v>0.09293129368743891</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.2657415806919232</v>
+        <v>0.2657415806919445</v>
       </c>
       <c r="L21">
-        <v>1.176865713063393</v>
+        <v>1.176865713063378</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1172,28 +1172,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.821730619872369</v>
+        <v>4.821730619872312</v>
       </c>
       <c r="C22">
-        <v>0.8857932743814558</v>
+        <v>0.8857932743816548</v>
       </c>
       <c r="D22">
-        <v>0.003596469278319248</v>
+        <v>0.003596469278393855</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>3.633155389168678</v>
+        <v>3.633155389168707</v>
       </c>
       <c r="G22">
-        <v>2.759348351552063</v>
+        <v>2.759348351552092</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.09845428782570309</v>
+        <v>0.0984542878257102</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1210,19 +1210,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.625043271994343</v>
+        <v>4.62504327199423</v>
       </c>
       <c r="C23">
         <v>0.8516445033402249</v>
       </c>
       <c r="D23">
-        <v>0.003683076791750395</v>
+        <v>0.003683076791730855</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>3.495463231936782</v>
+        <v>3.495463231936753</v>
       </c>
       <c r="G23">
         <v>2.655331886491481</v>
@@ -1237,7 +1237,7 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.2758479352714929</v>
+        <v>0.2758479352715071</v>
       </c>
       <c r="L23">
         <v>1.222175602219679</v>
@@ -1248,37 +1248,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.897499134698364</v>
+        <v>3.897499134698307</v>
       </c>
       <c r="C24">
-        <v>0.7250505170696044</v>
+        <v>0.7250505170691781</v>
       </c>
       <c r="D24">
-        <v>0.004094888027898591</v>
+        <v>0.004094888027661447</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>2.995092898232286</v>
+        <v>2.995092898232258</v>
       </c>
       <c r="G24">
-        <v>2.277937724682687</v>
+        <v>2.277937724682701</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.08479877149757087</v>
+        <v>0.0847987714975531</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.232852108476969</v>
+        <v>0.2328521084769477</v>
       </c>
       <c r="L24">
-        <v>1.028845670737994</v>
+        <v>1.028845670738022</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1289,10 +1289,10 @@
         <v>3.141329916822258</v>
       </c>
       <c r="C25">
-        <v>0.5928495255400321</v>
+        <v>0.5928495255402311</v>
       </c>
       <c r="D25">
-        <v>0.004676124467003717</v>
+        <v>0.00467612446711474</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1307,16 +1307,16 @@
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.07431072189724475</v>
+        <v>0.07431072189726606</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.1887611205070812</v>
+        <v>0.1887611205070883</v>
       </c>
       <c r="L25">
-        <v>0.828884861143294</v>
+        <v>0.8288848611433011</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_9/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_9/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,917 +406,992 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.601871891723647</v>
+        <v>2.601720092446499</v>
       </c>
       <c r="C2">
-        <v>0.4979793132553709</v>
+        <v>0.4978861286555514</v>
       </c>
       <c r="D2">
-        <v>0.005188516843067426</v>
+        <v>0.00514659869158951</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>2.143788486327708</v>
+        <v>2.139463235151382</v>
       </c>
       <c r="G2">
-        <v>1.638392654202477</v>
+        <v>0.5230249426635396</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>1.115030345891554</v>
       </c>
       <c r="I2">
-        <v>0.06727000596591104</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.06721114057716449</v>
       </c>
       <c r="K2">
-        <v>0.1577381981200823</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0.6869390238623438</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>0.1577884088645156</v>
+      </c>
+      <c r="M2">
+        <v>0.6870014187393494</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.244028703455001</v>
+        <v>2.243932780178454</v>
       </c>
       <c r="C3">
-        <v>0.434698836756894</v>
+        <v>0.4346349660876001</v>
       </c>
       <c r="D3">
-        <v>0.005575306551614645</v>
+        <v>0.005536023648934574</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.9194811743765</v>
+        <v>1.915659754034124</v>
       </c>
       <c r="G3">
-        <v>1.470549207753351</v>
+        <v>0.4643604757891069</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1.006453103456835</v>
       </c>
       <c r="I3">
-        <v>0.06283777043628724</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.06278692487806659</v>
       </c>
       <c r="K3">
-        <v>0.1373925996954632</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0.5931635582107546</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>0.1374377193413032</v>
+      </c>
+      <c r="M3">
+        <v>0.5932243213118795</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.027267337022295</v>
+        <v>2.027199875669226</v>
       </c>
       <c r="C4">
-        <v>0.3961955878796459</v>
+        <v>0.3961485150542785</v>
       </c>
       <c r="D4">
-        <v>0.005828718514900189</v>
+        <v>0.005790897960952002</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.78638675542274</v>
+        <v>1.78286802467845</v>
       </c>
       <c r="G4">
-        <v>1.371126652240136</v>
+        <v>0.4295155668110766</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.9422369428391164</v>
       </c>
       <c r="I4">
-        <v>0.06025906338544118</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.06021319917924473</v>
       </c>
       <c r="K4">
-        <v>0.1251721836094433</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0.5365302165553629</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>0.1252140911060735</v>
+      </c>
+      <c r="M4">
+        <v>0.5365887895010815</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.939562999753093</v>
+        <v>1.939505855762945</v>
       </c>
       <c r="C5">
-        <v>0.3805737996755454</v>
+        <v>0.3805333169009089</v>
       </c>
       <c r="D5">
-        <v>0.005935520897264013</v>
+        <v>0.005898261325547161</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.733189536389091</v>
+        <v>1.729792754395547</v>
       </c>
       <c r="G5">
-        <v>1.331427414715023</v>
+        <v>0.4155784454439129</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.9166204446890021</v>
       </c>
       <c r="I5">
-        <v>0.05924078140081868</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.05919696356084714</v>
       </c>
       <c r="K5">
-        <v>0.1202521934918828</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0.5136560158873422</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>0.1202927745251579</v>
+      </c>
+      <c r="M5">
+        <v>0.5137134362907645</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.925034484949606</v>
+        <v>1.924978981892878</v>
       </c>
       <c r="C6">
-        <v>0.377983414932487</v>
+        <v>0.377944012288367</v>
       </c>
       <c r="D6">
-        <v>0.005953456182960615</v>
+        <v>0.005916287767974815</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.724415533895154</v>
+        <v>1.721038924380636</v>
       </c>
       <c r="G6">
-        <v>1.324881990167455</v>
+        <v>0.4132791345278832</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.9123984173936179</v>
       </c>
       <c r="I6">
-        <v>0.05907357121050971</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.0590300942143962</v>
       </c>
       <c r="K6">
-        <v>0.1194386194644537</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>0.509869194675872</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>0.1194789792923316</v>
+      </c>
+      <c r="M6">
+        <v>0.5099264090376039</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.026082129589042</v>
+        <v>2.026014812332676</v>
       </c>
       <c r="C7">
-        <v>0.3959846539642626</v>
+        <v>0.3959376709895537</v>
       </c>
       <c r="D7">
-        <v>0.00583014515588598</v>
+        <v>0.005792332303934167</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.785665266083313</v>
+        <v>1.782148185306212</v>
       </c>
       <c r="G7">
-        <v>1.370588072375156</v>
+        <v>0.429326584919238</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.9418893151697461</v>
       </c>
       <c r="I7">
-        <v>0.06024520282566925</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.06019936614854693</v>
       </c>
       <c r="K7">
-        <v>0.1251055988770986</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>0.5362209416432862</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>0.1251474885503683</v>
+      </c>
+      <c r="M7">
+        <v>0.5362795000505898</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.477801135261302</v>
+        <v>2.477669936247196</v>
       </c>
       <c r="C8">
-        <v>0.4760748317325465</v>
+        <v>0.4759920337121173</v>
       </c>
       <c r="D8">
-        <v>0.00531827756065173</v>
+        <v>0.005277303023017765</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>2.065407614974546</v>
+        <v>2.061257643829322</v>
       </c>
       <c r="G8">
-        <v>1.579704586494955</v>
+        <v>0.5025326722708456</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>1.077043885633856</v>
       </c>
       <c r="I8">
-        <v>0.0657100631199885</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.0656539524505142</v>
       </c>
       <c r="K8">
-        <v>0.1506612961433689</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>0.6543880539500151</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>0.1507097721259001</v>
+      </c>
+      <c r="M8">
+        <v>0.654450157724682</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.392913751252877</v>
+        <v>3.392601036086262</v>
       </c>
       <c r="C9">
-        <v>0.6369208988101036</v>
+        <v>0.6367559100106064</v>
       </c>
       <c r="D9">
-        <v>0.004465241236817796</v>
+        <v>0.004416617699993353</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>2.656984022881517</v>
+        <v>2.651525791528911</v>
       </c>
       <c r="G9">
-        <v>2.023509843086501</v>
+        <v>0.6570748817035934</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1.364745116555127</v>
       </c>
       <c r="I9">
-        <v>0.07772524533827152</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.07764932759321397</v>
       </c>
       <c r="K9">
-        <v>0.203357285373329</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>0.8952934980409637</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>0.2034177581332273</v>
+      </c>
+      <c r="M9">
+        <v>0.8953510779522347</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.092335554957231</v>
+        <v>4.091838909623391</v>
       </c>
       <c r="C10">
-        <v>0.7590010829706841</v>
+        <v>0.7587644352700238</v>
       </c>
       <c r="D10">
-        <v>0.003970495933611318</v>
+        <v>0.003915028285869759</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>3.127661142069428</v>
+        <v>3.121177479442252</v>
       </c>
       <c r="G10">
-        <v>2.377829000917842</v>
+        <v>0.7799227310340342</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>1.594994237756595</v>
       </c>
       <c r="I10">
-        <v>0.08760532416284406</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.08751486355093263</v>
       </c>
       <c r="K10">
-        <v>0.2443144926396741</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>1.080534645056822</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>0.2443827982289619</v>
+      </c>
+      <c r="M10">
+        <v>1.080578469592282</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.418811886639901</v>
+        <v>4.418216029383132</v>
       </c>
       <c r="C11">
-        <v>0.8158075104722684</v>
+        <v>0.8155347107247621</v>
       </c>
       <c r="D11">
-        <v>0.003785197232856419</v>
+        <v>0.003726258673893312</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>3.352168915062151</v>
+        <v>3.345198413291655</v>
       </c>
       <c r="G11">
-        <v>2.547156726286914</v>
+        <v>0.8385091860642291</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>1.705156201134102</v>
       </c>
       <c r="I11">
-        <v>0.09239634609165037</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.09229921258672036</v>
       </c>
       <c r="K11">
-        <v>0.2636074358935758</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>1.167287599041074</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>0.263678961785601</v>
+      </c>
+      <c r="M11">
+        <v>1.167321919806973</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.543868316875546</v>
+        <v>4.543232182044051</v>
       </c>
       <c r="C12">
-        <v>0.837542669589908</v>
+        <v>0.83725555496423</v>
       </c>
       <c r="D12">
-        <v>0.003721892022790385</v>
+        <v>0.003661578517260011</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>3.438927556818811</v>
+        <v>3.431769121643185</v>
       </c>
       <c r="G12">
-        <v>2.612643136458928</v>
+        <v>0.8611490352180624</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>1.747779327189122</v>
       </c>
       <c r="I12">
-        <v>0.0942598097243561</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.09416013472147355</v>
       </c>
       <c r="K12">
-        <v>0.271025123541456</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>1.200563216458548</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>0.271097804994433</v>
+      </c>
+      <c r="M12">
+        <v>1.200593367856754</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.516867651808241</v>
+        <v>4.516240320466807</v>
       </c>
       <c r="C13">
-        <v>0.8328509423239439</v>
+        <v>0.8325669405032272</v>
       </c>
       <c r="D13">
-        <v>0.003735200167799491</v>
+        <v>0.003675185639474776</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>3.420160711729238</v>
+        <v>3.413042922134906</v>
       </c>
       <c r="G13">
-        <v>2.598475334599286</v>
+        <v>0.85625177799119</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>1.73855709663674</v>
       </c>
       <c r="I13">
-        <v>0.09385617639239285</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.09375704951486696</v>
       </c>
       <c r="K13">
-        <v>0.2694223237372313</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>1.193376687990927</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>0.2694947594342381</v>
+      </c>
+      <c r="M13">
+        <v>1.193407764596991</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.429070305664595</v>
+        <v>4.428471192068116</v>
       </c>
       <c r="C14">
-        <v>0.8175909333381242</v>
+        <v>0.817316969150454</v>
       </c>
       <c r="D14">
-        <v>0.003779844209471861</v>
+        <v>0.003720793805253919</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>3.359270135265973</v>
+        <v>3.352284247954657</v>
       </c>
       <c r="G14">
-        <v>2.55251575057639</v>
+        <v>0.8403622619515119</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>1.708643853355738</v>
       </c>
       <c r="I14">
-        <v>0.09254862724388602</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.0924512849833441</v>
       </c>
       <c r="K14">
-        <v>0.2642153469617412</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>1.170016287456725</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>0.264286969299981</v>
+      </c>
+      <c r="M14">
+        <v>1.170050277311617</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.375485191956614</v>
+        <v>4.374902994227739</v>
       </c>
       <c r="C15">
-        <v>0.808274202063302</v>
+        <v>0.808006301090586</v>
       </c>
       <c r="D15">
-        <v>0.003808121358094496</v>
+        <v>0.003749653318708468</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>3.322207764175147</v>
+        <v>3.315302183566558</v>
       </c>
       <c r="G15">
-        <v>2.5245482668454</v>
+        <v>0.8306907683779912</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>1.69044337047697</v>
       </c>
       <c r="I15">
-        <v>0.09175433458115378</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.09165808333104053</v>
       </c>
       <c r="K15">
-        <v>0.2610410300388821</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>1.155764746022768</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>0.2611121453536569</v>
+      </c>
+      <c r="M15">
+        <v>1.1558004425844</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.071185837697442</v>
+        <v>4.07069532494711</v>
       </c>
       <c r="C16">
-        <v>0.7553176009985236</v>
+        <v>0.7550832351500674</v>
       </c>
       <c r="D16">
-        <v>0.003983499068269225</v>
+        <v>0.003928250308753434</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>3.113218590283196</v>
+        <v>3.10676628102874</v>
       </c>
       <c r="G16">
-        <v>2.36694295069826</v>
+        <v>0.7761537668056491</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>1.587914483457325</v>
       </c>
       <c r="I16">
-        <v>0.08729872740170563</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.08720870121429058</v>
       </c>
       <c r="K16">
-        <v>0.2430683420752757</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>1.074920648465898</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>0.2431364291446769</v>
+      </c>
+      <c r="M16">
+        <v>1.074965020384802</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.886790844376833</v>
+        <v>3.886352287710622</v>
       </c>
       <c r="C17">
-        <v>0.7231834102759649</v>
+        <v>0.722968632317901</v>
       </c>
       <c r="D17">
-        <v>0.004102024334951437</v>
+        <v>0.004048652869239611</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>2.987838445607537</v>
+        <v>2.981658560772132</v>
       </c>
       <c r="G17">
-        <v>2.27247352215737</v>
+        <v>0.7434332447329979</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>1.526490054994824</v>
       </c>
       <c r="I17">
-        <v>0.08464569889023821</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.08455947281557741</v>
       </c>
       <c r="K17">
-        <v>0.2322232798210209</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>1.026006701680572</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>0.2322894120529639</v>
+      </c>
+      <c r="M17">
+        <v>1.026055496848755</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.781497806464643</v>
+        <v>3.781087703881155</v>
       </c>
       <c r="C18">
-        <v>0.7048175785117792</v>
+        <v>0.7046137403991111</v>
       </c>
       <c r="D18">
-        <v>0.004173860084988767</v>
+        <v>0.004121535370787299</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>2.91668476522122</v>
+        <v>2.910659699858996</v>
       </c>
       <c r="G18">
-        <v>2.218890852938998</v>
+        <v>0.7248631823431282</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>1.491661932433459</v>
       </c>
       <c r="I18">
-        <v>0.08314721477276166</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.08306316949084547</v>
       </c>
       <c r="K18">
-        <v>0.2260466011882869</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>0.9981021713097959</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>0.2261115778358089</v>
+      </c>
+      <c r="M18">
+        <v>0.9981532123677894</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.745972402282064</v>
+        <v>3.745571701199765</v>
       </c>
       <c r="C19">
-        <v>0.6986181498813835</v>
+        <v>0.6984179628527727</v>
       </c>
       <c r="D19">
-        <v>0.004198779944511344</v>
+        <v>0.004146804226846434</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>2.892751519494396</v>
+        <v>2.886778569805386</v>
       </c>
       <c r="G19">
-        <v>2.2008726350426</v>
+        <v>0.7186167422324559</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>1.479952268846461</v>
       </c>
       <c r="I19">
-        <v>0.08264438573552013</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.08256107815671854</v>
       </c>
       <c r="K19">
-        <v>0.2239653062492692</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>0.9886917056639675</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>0.2240298866622794</v>
+      </c>
+      <c r="M19">
+        <v>0.9887434587411832</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.906339137693294</v>
+        <v>3.905895201322835</v>
       </c>
       <c r="C20">
-        <v>0.7265917728741442</v>
+        <v>0.7263749443109191</v>
       </c>
       <c r="D20">
-        <v>0.004089020346624395</v>
+        <v>0.004035452518805549</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>3.001084162159856</v>
+        <v>2.994875475348152</v>
       </c>
       <c r="G20">
-        <v>2.282450633082945</v>
+        <v>0.746890086932126</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>1.532976009443203</v>
       </c>
       <c r="I20">
-        <v>0.08492523079133818</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.08483860074011673</v>
       </c>
       <c r="K20">
-        <v>0.2333713159350097</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>1.031189470923543</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>0.2334376595875085</v>
+      </c>
+      <c r="M20">
+        <v>1.031237826780711</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.45481776883264</v>
+        <v>4.454210444737043</v>
       </c>
       <c r="C21">
-        <v>0.8220667371055299</v>
+        <v>0.8217898425963313</v>
       </c>
       <c r="D21">
-        <v>0.003766534724388038</v>
+        <v>0.003707202858807435</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>3.377105735078516</v>
+        <v>3.37008120774388</v>
       </c>
       <c r="G21">
-        <v>2.56597644392312</v>
+        <v>0.8450164933822748</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>1.717404368613217</v>
       </c>
       <c r="I21">
-        <v>0.09293129368743891</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.09283342769686342</v>
       </c>
       <c r="K21">
-        <v>0.2657415806919445</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>1.176865713063378</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>0.2658134438024362</v>
+      </c>
+      <c r="M21">
+        <v>1.176898863644539</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.821730619872312</v>
+        <v>4.821000435597057</v>
       </c>
       <c r="C22">
-        <v>0.8857932743816548</v>
+        <v>0.8854734114629537</v>
       </c>
       <c r="D22">
-        <v>0.003596469278393855</v>
+        <v>0.003533011671008168</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>3.633155389168707</v>
+        <v>3.625576414886694</v>
       </c>
       <c r="G22">
-        <v>2.759348351552092</v>
+        <v>0.9118342153135899</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>1.843299809372965</v>
       </c>
       <c r="I22">
-        <v>0.0984542878257102</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.09834898914634138</v>
       </c>
       <c r="K22">
-        <v>0.2875590543580699</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>1.274584002289274</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>0.287634142627617</v>
+      </c>
+      <c r="M22">
+        <v>1.27460382509166</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.62504327199423</v>
+        <v>4.624380313490235</v>
       </c>
       <c r="C23">
-        <v>0.8516445033402249</v>
+        <v>0.851347956656241</v>
       </c>
       <c r="D23">
-        <v>0.003683076791730855</v>
+        <v>0.003621857443587118</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>3.495463231936753</v>
+        <v>3.488182367708617</v>
       </c>
       <c r="G23">
-        <v>2.655331886491481</v>
+        <v>0.875902232523913</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>1.775569385503886</v>
       </c>
       <c r="I23">
-        <v>0.09547755404152625</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.09537623303270948</v>
       </c>
       <c r="K23">
-        <v>0.2758479352715071</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>1.222175602219679</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>0.2759213430290615</v>
+      </c>
+      <c r="M23">
+        <v>1.222202888753515</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.897499134698307</v>
+        <v>3.897057634868702</v>
       </c>
       <c r="C24">
-        <v>0.7250505170691781</v>
+        <v>0.7248346165776809</v>
       </c>
       <c r="D24">
-        <v>0.004094888027661447</v>
+        <v>0.004041409075670188</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>2.995092898232258</v>
+        <v>2.988897238355747</v>
       </c>
       <c r="G24">
-        <v>2.277937724682701</v>
+        <v>0.7453265015132899</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>1.530042206318768</v>
       </c>
       <c r="I24">
-        <v>0.0847987714975531</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.08471232409593199</v>
       </c>
       <c r="K24">
-        <v>0.2328521084769477</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>1.028845670738022</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>0.2329183566439923</v>
+      </c>
+      <c r="M24">
+        <v>1.028894226125551</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.141329916822258</v>
+        <v>3.1410738467643</v>
       </c>
       <c r="C25">
-        <v>0.5928495255402311</v>
+        <v>0.5927084247202572</v>
       </c>
       <c r="D25">
-        <v>0.00467612446711474</v>
+        <v>0.004629757704863735</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>2.491398775131557</v>
+        <v>2.486303846120023</v>
       </c>
       <c r="G25">
-        <v>1.899099004828713</v>
+        <v>0.6138405012007695</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>1.284002172430078</v>
       </c>
       <c r="I25">
-        <v>0.07431072189726606</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.07424014404666579</v>
       </c>
       <c r="K25">
-        <v>0.1887611205070883</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>0.8288848611433011</v>
+        <v>0.1888184837537636</v>
+      </c>
+      <c r="M25">
+        <v>0.8289452111993754</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_9/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_9/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,989 +409,1139 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.601720092446499</v>
+        <v>3.937729584995395</v>
       </c>
       <c r="C2">
-        <v>0.4978861286555514</v>
+        <v>0.5334814787612459</v>
       </c>
       <c r="D2">
-        <v>0.00514659869158951</v>
+        <v>0.009965717515280303</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>2.139463235151382</v>
+        <v>2.037279844944209</v>
       </c>
       <c r="G2">
-        <v>0.5230249426635396</v>
+        <v>0.000816867322005521</v>
       </c>
       <c r="H2">
-        <v>1.115030345891554</v>
+        <v>0</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.06721114057716449</v>
+        <v>0.06256386280612247</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.1577884088645156</v>
+        <v>0.3227766615490282</v>
       </c>
       <c r="M2">
-        <v>0.6870014187393494</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0.9811201972393242</v>
+      </c>
+      <c r="O2">
+        <v>1.46245592806207</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.243932780178454</v>
+        <v>3.447484629908786</v>
       </c>
       <c r="C3">
-        <v>0.4346349660876001</v>
+        <v>0.4612877113520426</v>
       </c>
       <c r="D3">
-        <v>0.005536023648934574</v>
+        <v>0.009344130640530857</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.915659754034124</v>
+        <v>1.907093559466347</v>
       </c>
       <c r="G3">
-        <v>0.4643604757891069</v>
+        <v>0.0008248748188782375</v>
       </c>
       <c r="H3">
-        <v>1.006453103456835</v>
+        <v>0</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.06278692487806659</v>
+        <v>0.06378592152124973</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.1374377193413032</v>
+        <v>0.2899794284504935</v>
       </c>
       <c r="M3">
-        <v>0.5932243213118795</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>1.04189960286611</v>
+      </c>
+      <c r="O3">
+        <v>1.366108338149942</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.027199875669226</v>
+        <v>3.151215817724619</v>
       </c>
       <c r="C4">
-        <v>0.3961485150542785</v>
+        <v>0.4174111491179815</v>
       </c>
       <c r="D4">
-        <v>0.005790897960952002</v>
+        <v>0.008974188461528421</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.78286802467845</v>
+        <v>1.831486378376297</v>
       </c>
       <c r="G4">
-        <v>0.4295155668110766</v>
+        <v>0.0008299311288103481</v>
       </c>
       <c r="H4">
-        <v>0.9422369428391164</v>
+        <v>0</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.06021319917924473</v>
+        <v>0.06461075237374203</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.1252140911060735</v>
+        <v>0.2702521808710401</v>
       </c>
       <c r="M4">
-        <v>0.5365887895010815</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>1.080869015983744</v>
+      </c>
+      <c r="O4">
+        <v>1.310222560345224</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.939505855762945</v>
+        <v>3.031536856738569</v>
       </c>
       <c r="C5">
-        <v>0.3805333169009089</v>
+        <v>0.3996244127194188</v>
       </c>
       <c r="D5">
-        <v>0.005898261325547161</v>
+        <v>0.008825833016366857</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.729792754395547</v>
+        <v>1.801678862640813</v>
       </c>
       <c r="G5">
-        <v>0.4155784454439129</v>
+        <v>0.0008320281013123321</v>
       </c>
       <c r="H5">
-        <v>0.9166204446890021</v>
+        <v>0</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.05919696356084714</v>
+        <v>0.06496507394715856</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.1202927745251579</v>
+        <v>0.2623067478333212</v>
       </c>
       <c r="M5">
-        <v>0.5137134362907645</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>1.097149476584299</v>
+      </c>
+      <c r="O5">
+        <v>1.288205313972938</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.924978981892878</v>
+        <v>3.01172397271813</v>
       </c>
       <c r="C6">
-        <v>0.377944012288367</v>
+        <v>0.3966760204442323</v>
       </c>
       <c r="D6">
-        <v>0.005916287767974815</v>
+        <v>0.008801328706672606</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.721038924380636</v>
+        <v>1.796787559813254</v>
       </c>
       <c r="G6">
-        <v>0.4132791345278832</v>
+        <v>0.0008323785436692102</v>
       </c>
       <c r="H6">
-        <v>0.9123984173936179</v>
+        <v>0</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.0590300942143962</v>
+        <v>0.06502499293400987</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.1194789792923316</v>
+        <v>0.2609927997051926</v>
       </c>
       <c r="M6">
-        <v>0.5099264090376039</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>1.099876585565863</v>
+      </c>
+      <c r="O6">
+        <v>1.284593231004862</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.026014812332676</v>
+        <v>3.149597698792604</v>
       </c>
       <c r="C7">
-        <v>0.3959376709895537</v>
+        <v>0.4171709184038548</v>
       </c>
       <c r="D7">
-        <v>0.005792332303934167</v>
+        <v>0.008972178655283436</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.782148185306212</v>
+        <v>1.831080430452189</v>
       </c>
       <c r="G7">
-        <v>0.429326584919238</v>
+        <v>0.0008299592598424235</v>
       </c>
       <c r="H7">
-        <v>0.9418893151697461</v>
+        <v>0</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.06019936614854693</v>
+        <v>0.06461545787793987</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.1251474885503683</v>
+        <v>0.2701446592471655</v>
       </c>
       <c r="M7">
-        <v>0.5362795000505898</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>1.081086978828946</v>
+      </c>
+      <c r="O7">
+        <v>1.309922648033137</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.477669936247196</v>
+        <v>3.767620800668738</v>
       </c>
       <c r="C8">
-        <v>0.4759920337121173</v>
+        <v>0.5084829381801512</v>
       </c>
       <c r="D8">
-        <v>0.005277303023017765</v>
+        <v>0.009748614997738159</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>2.061257643829322</v>
+        <v>1.991439960845426</v>
       </c>
       <c r="G8">
-        <v>0.5025326722708456</v>
+        <v>0.000819600169655989</v>
       </c>
       <c r="H8">
-        <v>1.077043885633856</v>
+        <v>0</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.0656539524505142</v>
+        <v>0.06296943710570879</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.1507097721259001</v>
+        <v>0.3113769660364056</v>
       </c>
       <c r="M8">
-        <v>0.654450157724682</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>1.00172498232735</v>
+      </c>
+      <c r="O8">
+        <v>1.428514702619708</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.392601036086262</v>
+        <v>5.02417750303681</v>
       </c>
       <c r="C9">
-        <v>0.6367559100106064</v>
+        <v>0.6921241467985624</v>
       </c>
       <c r="D9">
-        <v>0.004416617699993353</v>
+        <v>0.01139227736727122</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>2.651525791528911</v>
+        <v>2.34447286907897</v>
       </c>
       <c r="G9">
-        <v>0.6570748817035934</v>
+        <v>0.000800326991193376</v>
       </c>
       <c r="H9">
-        <v>1.364745116555127</v>
+        <v>0</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.07764932759321397</v>
+        <v>0.06035871146981009</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.2034177581332273</v>
+        <v>0.395968816880341</v>
       </c>
       <c r="M9">
-        <v>0.8953510779522347</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0.8599298983550128</v>
+      </c>
+      <c r="O9">
+        <v>1.690318618114858</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.091838909623391</v>
+        <v>5.985423218140852</v>
       </c>
       <c r="C10">
-        <v>0.7587644352700238</v>
+        <v>0.8314036830939528</v>
       </c>
       <c r="D10">
-        <v>0.003915028285869759</v>
+        <v>0.01271905062444922</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>3.121177479442252</v>
+        <v>2.633912184923702</v>
       </c>
       <c r="G10">
-        <v>0.7799227310340342</v>
+        <v>0.0007866979743293312</v>
       </c>
       <c r="H10">
-        <v>1.594994237756595</v>
+        <v>0</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.08751486355093263</v>
+        <v>0.05885683519386831</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.2443827982289619</v>
+        <v>0.4611399939142586</v>
       </c>
       <c r="M10">
-        <v>1.080578469592282</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0.7653217192750716</v>
+      </c>
+      <c r="O10">
+        <v>1.90558476675514</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.418216029383132</v>
+        <v>6.433747349539146</v>
       </c>
       <c r="C11">
-        <v>0.8155347107247621</v>
+        <v>0.8961140151632492</v>
       </c>
       <c r="D11">
-        <v>0.003726258673893312</v>
+        <v>0.01336071170871111</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>3.345198413291655</v>
+        <v>2.773784025631812</v>
       </c>
       <c r="G11">
-        <v>0.8385091860642291</v>
+        <v>0.0007805869743666705</v>
       </c>
       <c r="H11">
-        <v>1.705156201134102</v>
+        <v>0</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.09229921258672036</v>
+        <v>0.0582740665565602</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.263678961785601</v>
+        <v>0.4916333065625054</v>
       </c>
       <c r="M11">
-        <v>1.167321919806973</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0.7246506688827026</v>
+      </c>
+      <c r="O11">
+        <v>2.009789952153554</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.543232182044051</v>
+        <v>6.605367104242021</v>
       </c>
       <c r="C12">
-        <v>0.83725555496423</v>
+        <v>0.9208508485482128</v>
       </c>
       <c r="D12">
-        <v>0.003661578517260011</v>
+        <v>0.01361038936721393</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>3.431769121643185</v>
+        <v>2.828088831116474</v>
       </c>
       <c r="G12">
-        <v>0.8611490352180624</v>
+        <v>0.0007782832266188279</v>
       </c>
       <c r="H12">
-        <v>1.747779327189122</v>
+        <v>0</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.09416013472147355</v>
+        <v>0.05806879103301554</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.271097804994433</v>
+        <v>0.5033199669228026</v>
       </c>
       <c r="M12">
-        <v>1.200593367856754</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0.7096181293912949</v>
+      </c>
+      <c r="O12">
+        <v>2.050276676577553</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.516240320466807</v>
+        <v>6.568318985486655</v>
       </c>
       <c r="C13">
-        <v>0.8325669405032272</v>
+        <v>0.9155123313462354</v>
       </c>
       <c r="D13">
-        <v>0.003675185639474776</v>
+        <v>0.01355629763427846</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>3.413042922134906</v>
+        <v>2.816331057612217</v>
       </c>
       <c r="G13">
-        <v>0.85625177799119</v>
+        <v>0.0007787789611750107</v>
       </c>
       <c r="H13">
-        <v>1.73855709663674</v>
+        <v>0</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.09375704951486696</v>
+        <v>0.05811229905626192</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.2694947594342381</v>
+        <v>0.5007965248895516</v>
       </c>
       <c r="M13">
-        <v>1.193407764596991</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0.7128387670412266</v>
+      </c>
+      <c r="O13">
+        <v>2.041509350165839</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.428471192068116</v>
+        <v>6.447827944184098</v>
       </c>
       <c r="C14">
-        <v>0.817316969150454</v>
+        <v>0.89814423511001</v>
       </c>
       <c r="D14">
-        <v>0.003720793805253919</v>
+        <v>0.01338111101889261</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>3.352284247954657</v>
+        <v>2.778223912935545</v>
       </c>
       <c r="G14">
-        <v>0.8403622619515119</v>
+        <v>0.0007803972511152083</v>
       </c>
       <c r="H14">
-        <v>1.708643853355738</v>
+        <v>0</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.0924512849833441</v>
+        <v>0.05825686373652417</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.264286969299981</v>
+        <v>0.4925918698048406</v>
       </c>
       <c r="M14">
-        <v>1.170050277311617</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0.7234063680819958</v>
+      </c>
+      <c r="O14">
+        <v>2.013099484595074</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.374902994227739</v>
+        <v>6.374272789634517</v>
       </c>
       <c r="C15">
-        <v>0.808006301090586</v>
+        <v>0.8875372593639099</v>
       </c>
       <c r="D15">
-        <v>0.003749653318708468</v>
+        <v>0.01327471534149893</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>3.315302183566558</v>
+        <v>2.755061523947859</v>
       </c>
       <c r="G15">
-        <v>0.8306907683779912</v>
+        <v>0.0007813897718835029</v>
       </c>
       <c r="H15">
-        <v>1.69044337047697</v>
+        <v>0</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.09165808333104053</v>
+        <v>0.05834745060863611</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.2611121453536569</v>
+        <v>0.4875850131985544</v>
       </c>
       <c r="M15">
-        <v>1.1558004425844</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0.7299282482176608</v>
+      </c>
+      <c r="O15">
+        <v>1.995835227623004</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.07069532494711</v>
+        <v>5.956368049127661</v>
       </c>
       <c r="C16">
-        <v>0.7550832351500674</v>
+        <v>0.8272050522529071</v>
       </c>
       <c r="D16">
-        <v>0.003928250308753434</v>
+        <v>0.01267798291698874</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>3.10676628102874</v>
+        <v>2.624949445090124</v>
       </c>
       <c r="G16">
-        <v>0.7761537668056491</v>
+        <v>0.0007870989302154463</v>
       </c>
       <c r="H16">
-        <v>1.587914483457325</v>
+        <v>0</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.08720870121429058</v>
+        <v>0.05889702147660003</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.2431364291446769</v>
+        <v>0.4591656906976453</v>
       </c>
       <c r="M16">
-        <v>1.074965020384802</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0.7680296382123224</v>
+      </c>
+      <c r="O16">
+        <v>1.898911287092176</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.886352287710622</v>
+        <v>5.703002355205172</v>
       </c>
       <c r="C17">
-        <v>0.722968632317901</v>
+        <v>0.7905649456885726</v>
       </c>
       <c r="D17">
-        <v>0.004048652869239611</v>
+        <v>0.01232247289709942</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>2.981658560772132</v>
+        <v>2.547338144535601</v>
       </c>
       <c r="G17">
-        <v>0.7434332447329979</v>
+        <v>0.0007906224442275622</v>
       </c>
       <c r="H17">
-        <v>1.526490054994824</v>
+        <v>0</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.08455947281557741</v>
+        <v>0.05926054238245726</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.2322894120529639</v>
+        <v>0.441960180463397</v>
       </c>
       <c r="M17">
-        <v>1.026055496848755</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0.7920288817503938</v>
+      </c>
+      <c r="O17">
+        <v>1.841143133894789</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.781087703881155</v>
+        <v>5.558295721022034</v>
       </c>
       <c r="C18">
-        <v>0.7046137403991111</v>
+        <v>0.769615174993362</v>
       </c>
       <c r="D18">
-        <v>0.004121535370787299</v>
+        <v>0.01212149649116867</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>2.910659699858996</v>
+        <v>2.503459856354269</v>
       </c>
       <c r="G18">
-        <v>0.7248631823431282</v>
+        <v>0.0007926576059852055</v>
       </c>
       <c r="H18">
-        <v>1.491661932433459</v>
+        <v>0</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.08306316949084547</v>
+        <v>0.05947902037988229</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.2261115778358089</v>
+        <v>0.432142532675627</v>
       </c>
       <c r="M18">
-        <v>0.9981532123677894</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0.8060534822940113</v>
+      </c>
+      <c r="O18">
+        <v>1.808499249544894</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.745571701199765</v>
+        <v>5.509468748651784</v>
       </c>
       <c r="C19">
-        <v>0.6984179628527727</v>
+        <v>0.7625422673036155</v>
       </c>
       <c r="D19">
-        <v>0.004146804226846434</v>
+        <v>0.01205401707629683</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>2.886778569805386</v>
+        <v>2.488729717917806</v>
       </c>
       <c r="G19">
-        <v>0.7186167422324559</v>
+        <v>0.0007933482111356113</v>
       </c>
       <c r="H19">
-        <v>1.479952268846461</v>
+        <v>0</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.08256107815671854</v>
+        <v>0.05955457850229706</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.2240298866622794</v>
+        <v>0.4288314221497842</v>
       </c>
       <c r="M19">
-        <v>0.9887434587411832</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0.8108390972950126</v>
+      </c>
+      <c r="O19">
+        <v>1.797543172158015</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.905895201322835</v>
+        <v>5.729865943592301</v>
       </c>
       <c r="C20">
-        <v>0.7263749443109191</v>
+        <v>0.7944521860623013</v>
       </c>
       <c r="D20">
-        <v>0.004035452518805549</v>
+        <v>0.01235994674003749</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>2.994875475348152</v>
+        <v>2.555520081463342</v>
       </c>
       <c r="G20">
-        <v>0.746890086932126</v>
+        <v>0.0007902464940549334</v>
       </c>
       <c r="H20">
-        <v>1.532976009443203</v>
+        <v>0</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.08483860074011673</v>
+        <v>0.05922086646499025</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.2334376595875085</v>
+        <v>0.4437834893125654</v>
       </c>
       <c r="M20">
-        <v>1.031237826780711</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>0.7894510676158859</v>
+      </c>
+      <c r="O20">
+        <v>1.847231485179208</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.454210444737043</v>
+        <v>6.483166663275085</v>
       </c>
       <c r="C21">
-        <v>0.8217898425963313</v>
+        <v>0.9032390295162145</v>
       </c>
       <c r="D21">
-        <v>0.003707202858807435</v>
+        <v>0.01343237523682106</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>3.37008120774388</v>
+        <v>2.789379220008982</v>
       </c>
       <c r="G21">
-        <v>0.8450164933822748</v>
+        <v>0.0007799216598520163</v>
       </c>
       <c r="H21">
-        <v>1.717404368613217</v>
+        <v>0</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.09283342769686342</v>
+        <v>0.05821397523341076</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.2658134438024362</v>
+        <v>0.4949978374521038</v>
       </c>
       <c r="M21">
-        <v>1.176898863644539</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0.7202921569567984</v>
+      </c>
+      <c r="O21">
+        <v>2.021415231250344</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.821000435597057</v>
+        <v>6.986415453880056</v>
       </c>
       <c r="C22">
-        <v>0.8854734114629537</v>
+        <v>0.9757137226213501</v>
       </c>
       <c r="D22">
-        <v>0.003533011671008168</v>
+        <v>0.01417300093948715</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>3.625576414886694</v>
+        <v>2.950109160483549</v>
       </c>
       <c r="G22">
-        <v>0.9118342153135899</v>
+        <v>0.000773232796888849</v>
       </c>
       <c r="H22">
-        <v>1.843299809372965</v>
+        <v>0</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.09834898914634138</v>
+        <v>0.05764624393430395</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.287634142627617</v>
+        <v>0.5292923796685614</v>
       </c>
       <c r="M22">
-        <v>1.27460382509166</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>0.6772577657770285</v>
+      </c>
+      <c r="O22">
+        <v>2.141306425883698</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.624380313490235</v>
+        <v>6.716727926159933</v>
       </c>
       <c r="C23">
-        <v>0.851347956656241</v>
+        <v>0.9368927731739234</v>
       </c>
       <c r="D23">
-        <v>0.003621857443587118</v>
+        <v>0.01377362564368845</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>3.488182367708617</v>
+        <v>2.863544977405354</v>
       </c>
       <c r="G23">
-        <v>0.875902232523913</v>
+        <v>0.0007767982501656865</v>
       </c>
       <c r="H23">
-        <v>1.775569385503886</v>
+        <v>0</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.09537623303270948</v>
+        <v>0.05794063943841365</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.2759213430290615</v>
+        <v>0.5109069818577154</v>
       </c>
       <c r="M23">
-        <v>1.222202888753515</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>0.7000175957904986</v>
+      </c>
+      <c r="O23">
+        <v>2.07671951350116</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.897057634868702</v>
+        <v>5.71771795470903</v>
       </c>
       <c r="C24">
-        <v>0.7248346165776809</v>
+        <v>0.7926944089490462</v>
       </c>
       <c r="D24">
-        <v>0.004041409075670188</v>
+        <v>0.0123429942802451</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>2.988897238355747</v>
+        <v>2.551818729963429</v>
       </c>
       <c r="G24">
-        <v>0.7453265015132899</v>
+        <v>0.0007904164315634629</v>
       </c>
       <c r="H24">
-        <v>1.530042206318768</v>
+        <v>0</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.08471232409593199</v>
+        <v>0.0592387744750873</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.2329183566439923</v>
+        <v>0.4429589421119289</v>
       </c>
       <c r="M24">
-        <v>1.028894226125551</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>0.790615792073126</v>
+      </c>
+      <c r="O24">
+        <v>1.844477182142626</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.1410738467643</v>
+        <v>4.678417956613941</v>
       </c>
       <c r="C25">
-        <v>0.5927084247202572</v>
+        <v>0.6418028080238116</v>
       </c>
       <c r="D25">
-        <v>0.004629757704863735</v>
+        <v>0.01093036643981815</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>2.486303846120023</v>
+        <v>2.244204538698042</v>
       </c>
       <c r="G25">
-        <v>0.6138405012007695</v>
+        <v>0.0008054395359621216</v>
       </c>
       <c r="H25">
-        <v>1.284002172430078</v>
+        <v>0</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.07424014404666579</v>
+        <v>0.06099502784112154</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.1888184837537636</v>
+        <v>0.3726124173667387</v>
       </c>
       <c r="M25">
-        <v>0.8289452111993754</v>
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0.8966986897765352</v>
+      </c>
+      <c r="O25">
+        <v>1.615870197350148</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_9/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_9/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.937729584995395</v>
+        <v>3.436071370786522</v>
       </c>
       <c r="C2">
-        <v>0.5334814787612459</v>
+        <v>0.5041970800764091</v>
       </c>
       <c r="D2">
-        <v>0.009965717515280303</v>
+        <v>0.1170864251654677</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>2.037279844944209</v>
+        <v>0.4468325736524577</v>
       </c>
       <c r="G2">
-        <v>0.000816867322005521</v>
+        <v>0.2395082000002162</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.2273914915690582</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.1853060944044209</v>
       </c>
       <c r="J2">
-        <v>0.06256386280612247</v>
+        <v>0.05443275102905076</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.3227766615490282</v>
+        <v>0.3950844795871831</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9811201972393242</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>1.46245592806207</v>
+        <v>0.9330555613565821</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.447484629908786</v>
+        <v>2.992036790567568</v>
       </c>
       <c r="C3">
-        <v>0.4612877113520426</v>
+        <v>0.456198870557273</v>
       </c>
       <c r="D3">
-        <v>0.009344130640530857</v>
+        <v>0.1097554580256244</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.907093559466347</v>
+        <v>0.4391747172191032</v>
       </c>
       <c r="G3">
-        <v>0.0008248748188782375</v>
+        <v>0.2337435329864803</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.2311606790296068</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.1997530176376223</v>
       </c>
       <c r="J3">
-        <v>0.06378592152124973</v>
+        <v>0.05774894227582461</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.2899794284504935</v>
+        <v>0.3519346482050878</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.04189960286611</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>1.366108338149942</v>
+        <v>0.9283442761586542</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>3.151215817724619</v>
+        <v>2.719289676157928</v>
       </c>
       <c r="C4">
-        <v>0.4174111491179815</v>
+        <v>0.4267465893989026</v>
       </c>
       <c r="D4">
-        <v>0.008974188461528421</v>
+        <v>0.1053490258020844</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.831486378376297</v>
+        <v>0.4356719714912742</v>
       </c>
       <c r="G4">
-        <v>0.0008299311288103481</v>
+        <v>0.2311079705986927</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.2340422747621531</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.209419822502305</v>
       </c>
       <c r="J4">
-        <v>0.06461075237374203</v>
+        <v>0.0599055427722428</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.2702521808710401</v>
+        <v>0.325609075476379</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.080869015983744</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>1.310222560345224</v>
+        <v>0.9285459853397668</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>3.031536856738569</v>
+        <v>2.608090750595409</v>
       </c>
       <c r="C5">
-        <v>0.3996244127194188</v>
+        <v>0.4147468557711989</v>
       </c>
       <c r="D5">
-        <v>0.008825833016366857</v>
+        <v>0.1035762657647865</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.801678862640813</v>
+        <v>0.4345330232531524</v>
       </c>
       <c r="G5">
-        <v>0.0008320281013123321</v>
+        <v>0.2302496629896567</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.2353540388134689</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.2135518973239527</v>
       </c>
       <c r="J5">
-        <v>0.06496507394715856</v>
+        <v>0.06081400067042786</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.2623067478333212</v>
+        <v>0.3149196178548408</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.097149476584299</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>1.288205313972938</v>
+        <v>0.9293708877606832</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>3.01172397271813</v>
+        <v>2.589622398750464</v>
       </c>
       <c r="C6">
-        <v>0.3966760204442323</v>
+        <v>0.4127543816728121</v>
       </c>
       <c r="D6">
-        <v>0.008801328706672606</v>
+        <v>0.1032832564910819</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.796787559813254</v>
+        <v>0.4343609508641322</v>
       </c>
       <c r="G6">
-        <v>0.0008323785436692102</v>
+        <v>0.2301198399217128</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.2355800136303827</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.2142494555918475</v>
       </c>
       <c r="J6">
-        <v>0.06502499293400987</v>
+        <v>0.06096661987198404</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.2609927997051926</v>
+        <v>0.313146850737354</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.099876585565863</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>1.284593231004862</v>
+        <v>0.9295517129441606</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>3.149597698792604</v>
+        <v>2.71779025202153</v>
       </c>
       <c r="C7">
-        <v>0.4171709184038548</v>
+        <v>0.4265847505001545</v>
       </c>
       <c r="D7">
-        <v>0.008972178655283436</v>
+        <v>0.1053250262463337</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.831080430452189</v>
+        <v>0.4356554602230531</v>
       </c>
       <c r="G7">
-        <v>0.0008299592598424235</v>
+        <v>0.2310955367487466</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.2340594156336593</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.2094747782229636</v>
       </c>
       <c r="J7">
-        <v>0.06461545787793987</v>
+        <v>0.0599176754546078</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.2701446592471655</v>
+        <v>0.3254647632056873</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1.081086978828946</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>1.309922648033137</v>
+        <v>0.9285541487714539</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.767620800668738</v>
+        <v>3.282974896147095</v>
       </c>
       <c r="C8">
-        <v>0.5084829381801512</v>
+        <v>0.4876418609557902</v>
       </c>
       <c r="D8">
-        <v>0.009748614997738159</v>
+        <v>0.1145384448588445</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.991439960845426</v>
+        <v>0.4439351853767022</v>
       </c>
       <c r="G8">
-        <v>0.000819600169655989</v>
+        <v>0.2373257816559189</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.2285701878077688</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.1901175237258155</v>
       </c>
       <c r="J8">
-        <v>0.06296943710570879</v>
+        <v>0.05555076991782082</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.3113769660364056</v>
+        <v>0.3801689542632829</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1.00172498232735</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>1.428514702619708</v>
+        <v>0.9307670530059511</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>5.02417750303681</v>
+        <v>4.391718419178289</v>
       </c>
       <c r="C9">
-        <v>0.6921241467985624</v>
+        <v>0.6076489395638305</v>
       </c>
       <c r="D9">
-        <v>0.01139227736727122</v>
+        <v>0.1334040470106572</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>2.34447286907897</v>
+        <v>0.4703071932673026</v>
       </c>
       <c r="G9">
-        <v>0.000800326991193376</v>
+        <v>0.2572651480249419</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.2225511351211154</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.1588276865945062</v>
       </c>
       <c r="J9">
-        <v>0.06035871146981009</v>
+        <v>0.04797379937937407</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.395968816880341</v>
+        <v>0.4889769987842101</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.8599298983550128</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>1.690318618114858</v>
+        <v>0.9613358412497348</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.985423218140852</v>
+        <v>5.208556166818198</v>
       </c>
       <c r="C10">
-        <v>0.8314036830939528</v>
+        <v>0.6961825709525158</v>
       </c>
       <c r="D10">
-        <v>0.01271905062444922</v>
+        <v>0.1478197429007082</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>2.633912184923702</v>
+        <v>0.4967697999152278</v>
       </c>
       <c r="G10">
-        <v>0.0007866979743293312</v>
+        <v>0.2774263595617583</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.2213787722637619</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.1404154470324208</v>
       </c>
       <c r="J10">
-        <v>0.05885683519386831</v>
+        <v>0.04305287107829692</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.4611399939142586</v>
+        <v>0.5701498136089782</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.7653217192750716</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>1.90558476675514</v>
+        <v>1.002238312421767</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6.433747349539146</v>
+        <v>5.581128337918472</v>
       </c>
       <c r="C11">
-        <v>0.8961140151632492</v>
+        <v>0.7365863519744948</v>
       </c>
       <c r="D11">
-        <v>0.01336071170871111</v>
+        <v>0.1545145865128035</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>2.773784025631812</v>
+        <v>0.5105610241366207</v>
       </c>
       <c r="G11">
-        <v>0.0007805869743666705</v>
+        <v>0.2879846076860204</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.221635291685331</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.1331528023731572</v>
       </c>
       <c r="J11">
-        <v>0.0582740665565602</v>
+        <v>0.04096484090361585</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.4916333065625054</v>
+        <v>0.6074159551257452</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.7246506688827026</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>2.009789952153554</v>
+        <v>1.025429125936512</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6.605367104242021</v>
+        <v>5.722395923471254</v>
       </c>
       <c r="C12">
-        <v>0.9208508485482128</v>
+        <v>0.7519090205045131</v>
       </c>
       <c r="D12">
-        <v>0.01361038936721393</v>
+        <v>0.1570708704435617</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>2.828088831116474</v>
+        <v>0.5160545180856886</v>
       </c>
       <c r="G12">
-        <v>0.0007782832266188279</v>
+        <v>0.2921990468669833</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.2218535262723691</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.1305734148492554</v>
       </c>
       <c r="J12">
-        <v>0.05806879103301554</v>
+        <v>0.04019673367732501</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.5033199669228026</v>
+        <v>0.6215828008601534</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.7096181293912949</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>2.050276676577553</v>
+        <v>1.034921625431735</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6.568318985486655</v>
+        <v>5.691962622359995</v>
       </c>
       <c r="C13">
-        <v>0.9155123313462354</v>
+        <v>0.7486079353505772</v>
       </c>
       <c r="D13">
-        <v>0.01355629763427846</v>
+        <v>0.1565193679426073</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>2.816331057612217</v>
+        <v>0.5148590258489634</v>
       </c>
       <c r="G13">
-        <v>0.0007787789611750107</v>
+        <v>0.2912814938338641</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.2218010147225584</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.1311211565425534</v>
       </c>
       <c r="J13">
-        <v>0.05811229905626192</v>
+        <v>0.04036113930785845</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.5007965248895516</v>
+        <v>0.6185291715941901</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.7128387670412266</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>2.041509350165839</v>
+        <v>1.032844784279632</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6.447827944184098</v>
+        <v>5.592746604789852</v>
       </c>
       <c r="C14">
-        <v>0.89814423511001</v>
+        <v>0.7378464792716102</v>
       </c>
       <c r="D14">
-        <v>0.01338111101889261</v>
+        <v>0.1547244625871116</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>2.778223912935545</v>
+        <v>0.5110074319612963</v>
       </c>
       <c r="G14">
-        <v>0.0007803972511152083</v>
+        <v>0.2883268975887177</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.2216507741923124</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.132937107189246</v>
       </c>
       <c r="J14">
-        <v>0.05825686373652417</v>
+        <v>0.04090119005446624</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.4925918698048406</v>
+        <v>0.608580332266925</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.7234063680819958</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>2.013099484595074</v>
+        <v>1.026195530486945</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6.374272789634517</v>
+        <v>5.531998962517662</v>
       </c>
       <c r="C15">
-        <v>0.8875372593639099</v>
+        <v>0.7312578494461093</v>
       </c>
       <c r="D15">
-        <v>0.01327471534149893</v>
+        <v>0.1536278205348651</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>2.755061523947859</v>
+        <v>0.5086841020296404</v>
       </c>
       <c r="G15">
-        <v>0.0007813897718835029</v>
+        <v>0.286545803986499</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.2215747494299336</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.1340720054450006</v>
       </c>
       <c r="J15">
-        <v>0.05834745060863611</v>
+        <v>0.04123495672211153</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.4875850131985544</v>
+        <v>0.6024937259782206</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.7299282482176608</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>1.995835227623004</v>
+        <v>1.022216801749437</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.956368049127661</v>
+        <v>5.184230976136575</v>
       </c>
       <c r="C16">
-        <v>0.8272050522529071</v>
+        <v>0.6935450292640724</v>
       </c>
       <c r="D16">
-        <v>0.01267798291698874</v>
+        <v>0.1473850934238214</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>2.624949445090124</v>
+        <v>0.4959053826325075</v>
       </c>
       <c r="G16">
-        <v>0.0007870989302154463</v>
+        <v>0.2767656740466791</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.2213785332428344</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.1409133811935277</v>
       </c>
       <c r="J16">
-        <v>0.05889702147660003</v>
+        <v>0.04319243673884188</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.4591656906976453</v>
+        <v>0.5677217365469858</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.7680296382123224</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>1.898911287092176</v>
+        <v>1.000819304571365</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.703002355205172</v>
+        <v>4.97116755539588</v>
       </c>
       <c r="C17">
-        <v>0.7905649456885726</v>
+        <v>0.6704453375834873</v>
       </c>
       <c r="D17">
-        <v>0.01232247289709942</v>
+        <v>0.1435914450741507</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>2.547338144535601</v>
+        <v>0.4885282030608806</v>
       </c>
       <c r="G17">
-        <v>0.0007906224442275622</v>
+        <v>0.2711327182097278</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.2214656539773614</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.1454028912502654</v>
       </c>
       <c r="J17">
-        <v>0.05926054238245726</v>
+        <v>0.04443249142031647</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.441960180463397</v>
+        <v>0.5464815514566084</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.7920288817503938</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>1.841143133894789</v>
+        <v>0.9889022993023673</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.558295721022034</v>
+        <v>4.848709553915228</v>
       </c>
       <c r="C18">
-        <v>0.769615174993362</v>
+        <v>0.657170923935297</v>
       </c>
       <c r="D18">
-        <v>0.01212149649116867</v>
+        <v>0.141422252870413</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>2.503459856354269</v>
+        <v>0.4844488655798784</v>
       </c>
       <c r="G18">
-        <v>0.0007926576059852055</v>
+        <v>0.2680222537479935</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.2215896281475196</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.1480892343138613</v>
       </c>
       <c r="J18">
-        <v>0.05947902037988229</v>
+        <v>0.04515984679060381</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.432142532675627</v>
+        <v>0.53429639511765</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.8060534822940113</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>1.808499249544894</v>
+        <v>0.9824761559034698</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.509468748651784</v>
+        <v>4.807261731861956</v>
       </c>
       <c r="C19">
-        <v>0.7625422673036155</v>
+        <v>0.6526783651139851</v>
       </c>
       <c r="D19">
-        <v>0.01205401707629683</v>
+        <v>0.1406899618140187</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>2.488729717917806</v>
+        <v>0.4830952507785824</v>
       </c>
       <c r="G19">
-        <v>0.0007933482111356113</v>
+        <v>0.2669908438072426</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.2216440687741681</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.1490163458508338</v>
       </c>
       <c r="J19">
-        <v>0.05955457850229706</v>
+        <v>0.04540851227902909</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.4288314221497842</v>
+        <v>0.5301759669529815</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.8108390972950126</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>1.797543172158015</v>
+        <v>0.9803724043142523</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.729865943592301</v>
+        <v>4.993838876970358</v>
       </c>
       <c r="C20">
-        <v>0.7944521860623013</v>
+        <v>0.6729030775952936</v>
       </c>
       <c r="D20">
-        <v>0.01235994674003749</v>
+        <v>0.143993949492156</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>2.555520081463342</v>
+        <v>0.4892964281878704</v>
       </c>
       <c r="G20">
-        <v>0.0007902464940549334</v>
+        <v>0.2717188385609575</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.2214486822040342</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.1449141260323064</v>
       </c>
       <c r="J20">
-        <v>0.05922086646499025</v>
+        <v>0.04429901865594488</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.4437834893125654</v>
+        <v>0.548739288769255</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.7894510676158859</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>1.847231485179208</v>
+        <v>0.9901262053318334</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6.483166663275085</v>
+        <v>5.621883460550919</v>
       </c>
       <c r="C21">
-        <v>0.9032390295162145</v>
+        <v>0.7410067317642586</v>
       </c>
       <c r="D21">
-        <v>0.01343237523682106</v>
+        <v>0.1552510859192324</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>2.789379220008982</v>
+        <v>0.5121312250239001</v>
       </c>
       <c r="G21">
-        <v>0.0007799216598520163</v>
+        <v>0.2891887252263814</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.2216915545747895</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.1323989934982812</v>
       </c>
       <c r="J21">
-        <v>0.05821397523341076</v>
+        <v>0.04074194336044901</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.4949978374521038</v>
+        <v>0.6115010054312933</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.7202921569567984</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>2.021415231250344</v>
+        <v>1.028128864022648</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6.986415453880056</v>
+        <v>6.033432277430109</v>
       </c>
       <c r="C22">
-        <v>0.9757137226213501</v>
+        <v>0.7856504430249345</v>
       </c>
       <c r="D22">
-        <v>0.01417300093948715</v>
+        <v>0.1627319213524743</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>2.950109160483549</v>
+        <v>0.5286446965789295</v>
       </c>
       <c r="G22">
-        <v>0.000773232796888849</v>
+        <v>0.3018754565051012</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.222559980082508</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.1252207750586685</v>
       </c>
       <c r="J22">
-        <v>0.05764624393430395</v>
+        <v>0.03854930541364787</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.5292923796685614</v>
+        <v>0.652842926280087</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0.6772577657770285</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>2.141306425883698</v>
+        <v>1.057134318645296</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6.716727926159933</v>
+        <v>5.813667411198537</v>
       </c>
       <c r="C23">
-        <v>0.9368927731739234</v>
+        <v>0.7618095714572917</v>
       </c>
       <c r="D23">
-        <v>0.01377362564368845</v>
+        <v>0.1587274651805473</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>2.863544977405354</v>
+        <v>0.5196791144608426</v>
       </c>
       <c r="G23">
-        <v>0.0007767982501656865</v>
+        <v>0.2949823263654991</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.2220289323666407</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.128956590674461</v>
       </c>
       <c r="J23">
-        <v>0.05794063943841365</v>
+        <v>0.03970714380641205</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.5109069818577154</v>
+        <v>0.6307462519338856</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0.7000175957904986</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>2.07671951350116</v>
+        <v>1.041254245487721</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.71771795470903</v>
+        <v>4.983589066495597</v>
       </c>
       <c r="C24">
-        <v>0.7926944089490462</v>
+        <v>0.6717919152378329</v>
       </c>
       <c r="D24">
-        <v>0.0123429942802451</v>
+        <v>0.1438119405104459</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>2.551818729963429</v>
+        <v>0.4889486107395697</v>
       </c>
       <c r="G24">
-        <v>0.0007904164315634629</v>
+        <v>0.2714534561288886</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.2214561255632645</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.1451347697184477</v>
       </c>
       <c r="J24">
-        <v>0.0592387744750873</v>
+        <v>0.04435931681249627</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.4429589421119289</v>
+        <v>0.5477184848581516</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0.790615792073126</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>1.844477182142626</v>
+        <v>0.9895715571708763</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.678417956613941</v>
+        <v>4.091532895259775</v>
       </c>
       <c r="C25">
-        <v>0.6418028080238116</v>
+        <v>0.5751350823648806</v>
       </c>
       <c r="D25">
-        <v>0.01093036643981815</v>
+        <v>0.1282081187454054</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>2.244204538698042</v>
+        <v>0.4619971751774941</v>
       </c>
       <c r="G25">
-        <v>0.0008054395359621216</v>
+        <v>0.2509641375558544</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.223635846890474</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.1665274355386259</v>
       </c>
       <c r="J25">
-        <v>0.06099502784112154</v>
+        <v>0.0499135110359914</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.3726124173667387</v>
+        <v>0.4593479305204085</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0.8966986897765352</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>1.615870197350148</v>
+        <v>0.9500135129197673</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_9/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_9/res_line/pl_mw.xlsx
@@ -421,37 +421,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.436071370786522</v>
+        <v>1.427221935424996</v>
       </c>
       <c r="C2">
-        <v>0.5041970800764091</v>
+        <v>0.262848996876869</v>
       </c>
       <c r="D2">
-        <v>0.1170864251654677</v>
+        <v>0.2253372448138506</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.4468325736524577</v>
+        <v>1.055527679690613</v>
       </c>
       <c r="G2">
-        <v>0.2395082000002162</v>
+        <v>0.5091178494961497</v>
       </c>
       <c r="H2">
-        <v>0.2273914915690582</v>
+        <v>0.6614487526469262</v>
       </c>
       <c r="I2">
-        <v>0.1853060944044209</v>
+        <v>0.6225890379057581</v>
       </c>
       <c r="J2">
-        <v>0.05443275102905076</v>
+        <v>0.1768943251942074</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.3950844795871831</v>
+        <v>0.4068172373015244</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0.9330555613565821</v>
+        <v>2.306763694216016</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,37 +468,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.992036790567568</v>
+        <v>1.284323943879997</v>
       </c>
       <c r="C3">
-        <v>0.456198870557273</v>
+        <v>0.2468767195153134</v>
       </c>
       <c r="D3">
-        <v>0.1097554580256244</v>
+        <v>0.2243814088732634</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.4391747172191032</v>
+        <v>1.064485976268294</v>
       </c>
       <c r="G3">
-        <v>0.2337435329864803</v>
+        <v>0.5146137275156946</v>
       </c>
       <c r="H3">
-        <v>0.2311606790296068</v>
+        <v>0.6683050636529373</v>
       </c>
       <c r="I3">
-        <v>0.1997530176376223</v>
+        <v>0.6336833811556257</v>
       </c>
       <c r="J3">
-        <v>0.05774894227582461</v>
+        <v>0.1791500328625872</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.3519346482050878</v>
+        <v>0.3956009180164273</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0.9283442761586542</v>
+        <v>2.332494378508471</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,37 +515,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.719289676157928</v>
+        <v>1.196362627868893</v>
       </c>
       <c r="C4">
-        <v>0.4267465893989026</v>
+        <v>0.2370509567479644</v>
       </c>
       <c r="D4">
-        <v>0.1053490258020844</v>
+        <v>0.223867990835636</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.4356719714912742</v>
+        <v>1.070665808268203</v>
       </c>
       <c r="G4">
-        <v>0.2311079705986927</v>
+        <v>0.5184288881013117</v>
       </c>
       <c r="H4">
-        <v>0.2340422747621531</v>
+        <v>0.6728632893999134</v>
       </c>
       <c r="I4">
-        <v>0.209419822502305</v>
+        <v>0.6409301130735177</v>
       </c>
       <c r="J4">
-        <v>0.0599055427722428</v>
+        <v>0.1806153593326338</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.325609075476379</v>
+        <v>0.3888257664023627</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.9285459853397668</v>
+        <v>2.349947261803479</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,37 +562,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.608090750595409</v>
+        <v>1.1604647620793</v>
       </c>
       <c r="C5">
-        <v>0.4147468557711989</v>
+        <v>0.2330425290804214</v>
       </c>
       <c r="D5">
-        <v>0.1035762657647865</v>
+        <v>0.2236773157834406</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.4345330232531524</v>
+        <v>1.073354941408162</v>
       </c>
       <c r="G5">
-        <v>0.2302496629896567</v>
+        <v>0.5200942355342164</v>
       </c>
       <c r="H5">
-        <v>0.2353540388134689</v>
+        <v>0.6748084258694576</v>
       </c>
       <c r="I5">
-        <v>0.2135518973239527</v>
+        <v>0.6439924292284793</v>
       </c>
       <c r="J5">
-        <v>0.06081400067042786</v>
+        <v>0.1812326970291034</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.3149196178548408</v>
+        <v>0.3860931927477651</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0.9293708877606832</v>
+        <v>2.357475048796942</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,37 +609,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.589622398750464</v>
+        <v>1.154500834163116</v>
       </c>
       <c r="C6">
-        <v>0.4127543816728121</v>
+        <v>0.2323766805954506</v>
       </c>
       <c r="D6">
-        <v>0.1032832564910819</v>
+        <v>0.2236467766638839</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.4343609508641322</v>
+        <v>1.073811784726324</v>
       </c>
       <c r="G6">
-        <v>0.2301198399217128</v>
+        <v>0.5203774424562013</v>
       </c>
       <c r="H6">
-        <v>0.2355800136303827</v>
+        <v>0.6751367067324949</v>
       </c>
       <c r="I6">
-        <v>0.2142494555918475</v>
+        <v>0.6445075175213386</v>
       </c>
       <c r="J6">
-        <v>0.06096661987198404</v>
+        <v>0.181336426124215</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.313146850737354</v>
+        <v>0.3856411713809678</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.9295517129441606</v>
+        <v>2.358750122678998</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,37 +656,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.71779025202153</v>
+        <v>1.195878707289921</v>
       </c>
       <c r="C7">
-        <v>0.4265847505001545</v>
+        <v>0.2369969148255393</v>
       </c>
       <c r="D7">
-        <v>0.1053250262463337</v>
+        <v>0.2238653441324061</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.4356554602230531</v>
+        <v>1.070701383343042</v>
       </c>
       <c r="G7">
-        <v>0.2310955367487466</v>
+        <v>0.5184508998158393</v>
       </c>
       <c r="H7">
-        <v>0.2340594156336593</v>
+        <v>0.67288916739966</v>
       </c>
       <c r="I7">
-        <v>0.2094747782229636</v>
+        <v>0.6409709704827495</v>
       </c>
       <c r="J7">
-        <v>0.0599176754546078</v>
+        <v>0.1806236031412585</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.3254647632056873</v>
+        <v>0.3887887987957583</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.9285541487714539</v>
+        <v>2.350047101910562</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,37 +703,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.282974896147095</v>
+        <v>1.377998254199554</v>
       </c>
       <c r="C8">
-        <v>0.4876418609557902</v>
+        <v>0.2573458497254819</v>
       </c>
       <c r="D8">
-        <v>0.1145384448588445</v>
+        <v>0.2249924668718961</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.4439351853767022</v>
+        <v>1.058475466339985</v>
       </c>
       <c r="G8">
-        <v>0.2373257816559189</v>
+        <v>0.5109212643922376</v>
       </c>
       <c r="H8">
-        <v>0.2285701878077688</v>
+        <v>0.6637404989705331</v>
       </c>
       <c r="I8">
-        <v>0.1901175237258155</v>
+        <v>0.6263240682000397</v>
       </c>
       <c r="J8">
-        <v>0.05555076991782082</v>
+        <v>0.1776554304714439</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.3801689542632829</v>
+        <v>0.4029268184140591</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.9307670530059511</v>
+        <v>2.315292107099083</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,37 +750,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.391718419178289</v>
+        <v>1.733274424020976</v>
       </c>
       <c r="C9">
-        <v>0.6076489395638305</v>
+        <v>0.2970878127940182</v>
       </c>
       <c r="D9">
-        <v>0.1334040470106572</v>
+        <v>0.2277827930866607</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.4703071932673026</v>
+        <v>1.039893468838763</v>
       </c>
       <c r="G9">
-        <v>0.2572651480249419</v>
+        <v>0.4996600917148655</v>
       </c>
       <c r="H9">
-        <v>0.2225511351211154</v>
+        <v>0.648564180911734</v>
       </c>
       <c r="I9">
-        <v>0.1588276865945062</v>
+        <v>0.6010557018564544</v>
       </c>
       <c r="J9">
-        <v>0.04797379937937407</v>
+        <v>0.1724715797029379</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.4889769987842101</v>
+        <v>0.4315278708312746</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.9613358412497348</v>
+        <v>2.260278754688997</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,37 +797,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.208556166818198</v>
+        <v>1.99304925807229</v>
       </c>
       <c r="C10">
-        <v>0.6961825709525158</v>
+        <v>0.3261718707782393</v>
       </c>
       <c r="D10">
-        <v>0.1478197429007082</v>
+        <v>0.2301829741705745</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.4967697999152278</v>
+        <v>1.029532745360328</v>
       </c>
       <c r="G10">
-        <v>0.2774263595617583</v>
+        <v>0.4935340957283216</v>
       </c>
       <c r="H10">
-        <v>0.2213787722637619</v>
+        <v>0.6390987371702863</v>
       </c>
       <c r="I10">
-        <v>0.1404154470324208</v>
+        <v>0.584602455300983</v>
       </c>
       <c r="J10">
-        <v>0.04305287107829692</v>
+        <v>0.1690503501220899</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.5701498136089782</v>
+        <v>0.4530644106797723</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>1.002238312421767</v>
+        <v>2.227894638160222</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,37 +844,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.581128337918472</v>
+        <v>2.110934805366981</v>
       </c>
       <c r="C11">
-        <v>0.7365863519744948</v>
+        <v>0.339375075837097</v>
       </c>
       <c r="D11">
-        <v>0.1545145865128035</v>
+        <v>0.2313501960975657</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.5105610241366207</v>
+        <v>1.025534940208921</v>
       </c>
       <c r="G11">
-        <v>0.2879846076860204</v>
+        <v>0.4912159554734998</v>
       </c>
       <c r="H11">
-        <v>0.221635291685331</v>
+        <v>0.6351583527060569</v>
       </c>
       <c r="I11">
-        <v>0.1331528023731572</v>
+        <v>0.5775771124644606</v>
       </c>
       <c r="J11">
-        <v>0.04096484090361585</v>
+        <v>0.167577875106562</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.6074159551257452</v>
+        <v>0.4629734198082076</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>1.025429125936512</v>
+        <v>2.214911782538536</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,37 +891,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.722395923471254</v>
+        <v>2.155531290526028</v>
       </c>
       <c r="C12">
-        <v>0.7519090205045131</v>
+        <v>0.3443705491201285</v>
       </c>
       <c r="D12">
-        <v>0.1570708704435617</v>
+        <v>0.2318029631245366</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>0.5160545180856886</v>
+        <v>1.02412400060804</v>
       </c>
       <c r="G12">
-        <v>0.2921990468669833</v>
+        <v>0.4904057108221735</v>
       </c>
       <c r="H12">
-        <v>0.2218535262723691</v>
+        <v>0.6337187863515226</v>
       </c>
       <c r="I12">
-        <v>0.1305734148492554</v>
+        <v>0.5749829636059864</v>
       </c>
       <c r="J12">
-        <v>0.04019673367732501</v>
+        <v>0.1670323357967298</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.6215828008601534</v>
+        <v>0.4667415668328943</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>1.034921625431735</v>
+        <v>2.210247397056634</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,37 +938,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.691962622359995</v>
+        <v>2.145928651782526</v>
       </c>
       <c r="C13">
-        <v>0.7486079353505772</v>
+        <v>0.3432948814173358</v>
       </c>
       <c r="D13">
-        <v>0.1565193679426073</v>
+        <v>0.2317049739999391</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.5148590258489634</v>
+        <v>1.024423292089324</v>
       </c>
       <c r="G13">
-        <v>0.2912814938338641</v>
+        <v>0.4905772024946913</v>
       </c>
       <c r="H13">
-        <v>0.2218010147225584</v>
+        <v>0.6340264843579746</v>
       </c>
       <c r="I13">
-        <v>0.1311211565425534</v>
+        <v>0.5755387135722856</v>
       </c>
       <c r="J13">
-        <v>0.04036113930785845</v>
+        <v>0.1671492913586405</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.6185291715941901</v>
+        <v>0.4659293297047782</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>1.032844784279632</v>
+        <v>2.211240743562939</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,37 +985,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.592746604789852</v>
+        <v>2.114604687648409</v>
       </c>
       <c r="C14">
-        <v>0.7378464792716102</v>
+        <v>0.3397861446019306</v>
       </c>
       <c r="D14">
-        <v>0.1547244625871116</v>
+        <v>0.2313872301718902</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>0.5110074319612963</v>
+        <v>1.025416797801682</v>
       </c>
       <c r="G14">
-        <v>0.2883268975887177</v>
+        <v>0.4911479405219552</v>
       </c>
       <c r="H14">
-        <v>0.2216507741923124</v>
+        <v>0.6350388650197587</v>
       </c>
       <c r="I14">
-        <v>0.132937107189246</v>
+        <v>0.5773623627751459</v>
       </c>
       <c r="J14">
-        <v>0.04090119005446624</v>
+        <v>0.1675327516805121</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.608580332266925</v>
+        <v>0.4632831120404006</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>1.026195530486945</v>
+        <v>2.214522988869561</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,37 +1032,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.531998962517662</v>
+        <v>2.095412011724193</v>
       </c>
       <c r="C15">
-        <v>0.7312578494461093</v>
+        <v>0.3376363718325024</v>
       </c>
       <c r="D15">
-        <v>0.1536278205348651</v>
+        <v>0.2311940027328063</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.5086841020296404</v>
+        <v>1.026038757150403</v>
       </c>
       <c r="G15">
-        <v>0.286545803986499</v>
+        <v>0.4915063414690053</v>
       </c>
       <c r="H15">
-        <v>0.2215747494299336</v>
+        <v>0.6356658242148114</v>
       </c>
       <c r="I15">
-        <v>0.1340720054450006</v>
+        <v>0.5784880255695288</v>
       </c>
       <c r="J15">
-        <v>0.04123495672211153</v>
+        <v>0.1677692020058847</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.6024937259782206</v>
+        <v>0.4616642794433261</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>1.022216801749437</v>
+        <v>2.216566282480315</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,37 +1079,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.184230976136575</v>
+        <v>1.985339130512102</v>
       </c>
       <c r="C16">
-        <v>0.6935450292640724</v>
+        <v>0.3253084295436111</v>
       </c>
       <c r="D16">
-        <v>0.1473850934238214</v>
+        <v>0.2301082038728879</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.4959053826325075</v>
+        <v>1.029808412457136</v>
       </c>
       <c r="G16">
-        <v>0.2767656740466791</v>
+        <v>0.4936950383192311</v>
       </c>
       <c r="H16">
-        <v>0.2213785332428344</v>
+        <v>0.6393636064441921</v>
       </c>
       <c r="I16">
-        <v>0.1409133811935277</v>
+        <v>0.5850708332053003</v>
       </c>
       <c r="J16">
-        <v>0.04319243673884188</v>
+        <v>0.1691482669617912</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.5677217365469858</v>
+        <v>0.4524190624023561</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>1.000819304571365</v>
+        <v>2.22877832880522</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,37 +1126,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.97116755539588</v>
+        <v>1.917737324343705</v>
       </c>
       <c r="C17">
-        <v>0.6704453375834873</v>
+        <v>0.3177383842711095</v>
       </c>
       <c r="D17">
-        <v>0.1435914450741507</v>
+        <v>0.2294613533463945</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.4885282030608806</v>
+        <v>1.032304245264697</v>
       </c>
       <c r="G17">
-        <v>0.2711327182097278</v>
+        <v>0.4951578969553339</v>
       </c>
       <c r="H17">
-        <v>0.2214656539773614</v>
+        <v>0.6417256978934063</v>
       </c>
       <c r="I17">
-        <v>0.1454028912502654</v>
+        <v>0.5892269198889384</v>
       </c>
       <c r="J17">
-        <v>0.04443249142031647</v>
+        <v>0.17001575428921</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.5464815514566084</v>
+        <v>0.4467758929702939</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.9889022993023673</v>
+        <v>2.236718271937164</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,37 +1173,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.848709553915228</v>
+        <v>1.878827680503207</v>
       </c>
       <c r="C18">
-        <v>0.657170923935297</v>
+        <v>0.3133817488221382</v>
       </c>
       <c r="D18">
-        <v>0.141422252870413</v>
+        <v>0.2290964002958162</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.4844488655798784</v>
+        <v>1.033807108945254</v>
       </c>
       <c r="G18">
-        <v>0.2680222537479935</v>
+        <v>0.4960433901501773</v>
       </c>
       <c r="H18">
-        <v>0.2215896281475196</v>
+        <v>0.6431187115503079</v>
       </c>
       <c r="I18">
-        <v>0.1480892343138613</v>
+        <v>0.5916606158415636</v>
       </c>
       <c r="J18">
-        <v>0.04515984679060381</v>
+        <v>0.1705226035329872</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.53429639511765</v>
+        <v>0.4435406428405599</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.9824761559034698</v>
+        <v>2.241449699313577</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,37 +1220,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.807261731861956</v>
+        <v>1.865649016799978</v>
       </c>
       <c r="C19">
-        <v>0.6526783651139851</v>
+        <v>0.3119062410688969</v>
       </c>
       <c r="D19">
-        <v>0.1406899618140187</v>
+        <v>0.2289740548036576</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.4830952507785824</v>
+        <v>1.034327513796597</v>
       </c>
       <c r="G19">
-        <v>0.2669908438072426</v>
+        <v>0.4963507702748871</v>
       </c>
       <c r="H19">
-        <v>0.2216440687741681</v>
+        <v>0.6435962700298674</v>
       </c>
       <c r="I19">
-        <v>0.1490163458508338</v>
+        <v>0.5924920429178293</v>
       </c>
       <c r="J19">
-        <v>0.04540851227902909</v>
+        <v>0.1706955698098271</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.5301759669529815</v>
+        <v>0.442447063390432</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.9803724043142523</v>
+        <v>2.243079932402566</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,37 +1267,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.993838876970358</v>
+        <v>1.924936454307726</v>
       </c>
       <c r="C20">
-        <v>0.6729030775952936</v>
+        <v>0.3185444946768712</v>
       </c>
       <c r="D20">
-        <v>0.143993949492156</v>
+        <v>0.2295294775707504</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>0.4892964281878704</v>
+        <v>1.032031590977851</v>
       </c>
       <c r="G20">
-        <v>0.2717188385609575</v>
+        <v>0.4949976079735166</v>
       </c>
       <c r="H20">
-        <v>0.2214486822040342</v>
+        <v>0.6414706887343726</v>
       </c>
       <c r="I20">
-        <v>0.1449141260323064</v>
+        <v>0.5887800226993107</v>
       </c>
       <c r="J20">
-        <v>0.04429901865594488</v>
+        <v>0.1699225918651823</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.548739288769255</v>
+        <v>0.4473755279276332</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>0.9901262053318334</v>
+        <v>2.235856014466378</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,37 +1314,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.621883460550919</v>
+        <v>2.123806518121626</v>
       </c>
       <c r="C21">
-        <v>0.7410067317642586</v>
+        <v>0.3408168651346557</v>
       </c>
       <c r="D21">
-        <v>0.1552510859192324</v>
+        <v>0.231480267642155</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>0.5121312250239001</v>
+        <v>1.025122186654279</v>
       </c>
       <c r="G21">
-        <v>0.2891887252263814</v>
+        <v>0.4909784651153117</v>
       </c>
       <c r="H21">
-        <v>0.2216915545747895</v>
+        <v>0.634740077385004</v>
       </c>
       <c r="I21">
-        <v>0.1323989934982812</v>
+        <v>0.5768249150960898</v>
       </c>
       <c r="J21">
-        <v>0.04074194336044901</v>
+        <v>0.1674197929493282</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.6115010054312933</v>
+        <v>0.464059943140569</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>1.028128864022648</v>
+        <v>2.213552072642159</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,37 +1361,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6.033432277430109</v>
+        <v>2.253520564414771</v>
       </c>
       <c r="C22">
-        <v>0.7856504430249345</v>
+        <v>0.3553479485161404</v>
       </c>
       <c r="D22">
-        <v>0.1627319213524743</v>
+        <v>0.2328179373431709</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>0.5286446965789295</v>
+        <v>1.021206553545689</v>
       </c>
       <c r="G22">
-        <v>0.3018754565051012</v>
+        <v>0.4887457499119137</v>
       </c>
       <c r="H22">
-        <v>0.222559980082508</v>
+        <v>0.6306476684464428</v>
       </c>
       <c r="I22">
-        <v>0.1252207750586685</v>
+        <v>0.5693974695559945</v>
       </c>
       <c r="J22">
-        <v>0.03854930541364787</v>
+        <v>0.1658543333303761</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.652842926280087</v>
+        <v>0.4750562590509446</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>1.057134318645296</v>
+        <v>2.200443867104696</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,37 +1408,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.813667411198537</v>
+        <v>2.184314389785925</v>
       </c>
       <c r="C23">
-        <v>0.7618095714572917</v>
+        <v>0.3475948632912775</v>
       </c>
       <c r="D23">
-        <v>0.1587274651805473</v>
+        <v>0.2320982832269749</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>0.5196791144608426</v>
+        <v>1.023241469785724</v>
       </c>
       <c r="G23">
-        <v>0.2949823263654991</v>
+        <v>0.4899012730356276</v>
       </c>
       <c r="H23">
-        <v>0.2220289323666407</v>
+        <v>0.6328038206920326</v>
       </c>
       <c r="I23">
-        <v>0.128956590674461</v>
+        <v>0.5733262782484587</v>
       </c>
       <c r="J23">
-        <v>0.03970714380641205</v>
+        <v>0.1666834206731878</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.6307462519338856</v>
+        <v>0.4691789829947481</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>1.041254245487721</v>
+        <v>2.20730542564479</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,37 +1455,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.983589066495597</v>
+        <v>1.921681865934204</v>
       </c>
       <c r="C24">
-        <v>0.6717919152378329</v>
+        <v>0.3181800662000001</v>
       </c>
       <c r="D24">
-        <v>0.1438119405104459</v>
+        <v>0.2294986570183397</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>0.4889486107395697</v>
+        <v>1.032154646246525</v>
       </c>
       <c r="G24">
-        <v>0.2714534561288886</v>
+        <v>0.4950699360974866</v>
       </c>
       <c r="H24">
-        <v>0.2214561255632645</v>
+        <v>0.6415858693035688</v>
       </c>
       <c r="I24">
-        <v>0.1451347697184477</v>
+        <v>0.5889819269183505</v>
       </c>
       <c r="J24">
-        <v>0.04435931681249627</v>
+        <v>0.1699646853061632</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.5477184848581516</v>
+        <v>0.4471044046509718</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>0.9895715571708763</v>
+        <v>2.236245322005885</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,37 +1502,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.091532895259775</v>
+        <v>1.637373651876715</v>
       </c>
       <c r="C25">
-        <v>0.5751350823648806</v>
+        <v>0.2863555384331846</v>
       </c>
       <c r="D25">
-        <v>0.1282081187454054</v>
+        <v>0.2269661988934502</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0.4619971751774941</v>
+        <v>1.044342640518643</v>
       </c>
       <c r="G25">
-        <v>0.2509641375558544</v>
+        <v>0.5023302008476094</v>
       </c>
       <c r="H25">
-        <v>0.223635846890474</v>
+        <v>0.6523739052205144</v>
       </c>
       <c r="I25">
-        <v>0.1665274355386259</v>
+        <v>0.6075210846492354</v>
       </c>
       <c r="J25">
-        <v>0.0499135110359914</v>
+        <v>0.1738058678406915</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.4593479305204085</v>
+        <v>0.4236978361714563</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>0.9500135129197673</v>
+        <v>2.27375208391112</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_9/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_9/res_line/pl_mw.xlsx
@@ -421,37 +421,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.427221935424996</v>
+        <v>3.436071370786635</v>
       </c>
       <c r="C2">
-        <v>0.262848996876869</v>
+        <v>0.5041970800764659</v>
       </c>
       <c r="D2">
-        <v>0.2253372448138506</v>
+        <v>0.1170864251653185</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.055527679690613</v>
+        <v>0.446832573652479</v>
       </c>
       <c r="G2">
-        <v>0.5091178494961497</v>
+        <v>0.2395082000002162</v>
       </c>
       <c r="H2">
-        <v>0.6614487526469262</v>
+        <v>0.2273914915690867</v>
       </c>
       <c r="I2">
-        <v>0.6225890379057581</v>
+        <v>0.185306094404412</v>
       </c>
       <c r="J2">
-        <v>0.1768943251942074</v>
+        <v>0.05443275102897704</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.4068172373015244</v>
+        <v>0.3950844795872257</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>2.306763694216016</v>
+        <v>0.9330555613566531</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,37 +468,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.284323943879997</v>
+        <v>2.992036790567568</v>
       </c>
       <c r="C3">
-        <v>0.2468767195153134</v>
+        <v>0.4561988705569888</v>
       </c>
       <c r="D3">
-        <v>0.2243814088732634</v>
+        <v>0.1097554580253899</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.064485976268294</v>
+        <v>0.4391747172191245</v>
       </c>
       <c r="G3">
-        <v>0.5146137275156946</v>
+        <v>0.2337435329864732</v>
       </c>
       <c r="H3">
-        <v>0.6683050636529373</v>
+        <v>0.2311606790296139</v>
       </c>
       <c r="I3">
-        <v>0.6336833811556257</v>
+        <v>0.1997530176376259</v>
       </c>
       <c r="J3">
-        <v>0.1791500328625872</v>
+        <v>0.05774894227576199</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.3956009180164273</v>
+        <v>0.3519346482051446</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>2.332494378508471</v>
+        <v>0.9283442761586542</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,37 +515,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.196362627868893</v>
+        <v>2.719289676157871</v>
       </c>
       <c r="C4">
-        <v>0.2370509567479644</v>
+        <v>0.4267465893986753</v>
       </c>
       <c r="D4">
-        <v>0.223867990835636</v>
+        <v>0.1053490258019494</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.070665808268203</v>
+        <v>0.4356719714912813</v>
       </c>
       <c r="G4">
-        <v>0.5184288881013117</v>
+        <v>0.2311079705986856</v>
       </c>
       <c r="H4">
-        <v>0.6728632893999134</v>
+        <v>0.2340422747621531</v>
       </c>
       <c r="I4">
-        <v>0.6409301130735177</v>
+        <v>0.209419822502305</v>
       </c>
       <c r="J4">
-        <v>0.1806153593326338</v>
+        <v>0.05990554277222238</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.3888257664023627</v>
+        <v>0.3256090754763648</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>2.349947261803479</v>
+        <v>0.9285459853397953</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,37 +562,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.1604647620793</v>
+        <v>2.608090750595181</v>
       </c>
       <c r="C5">
-        <v>0.2330425290804214</v>
+        <v>0.4147468557716536</v>
       </c>
       <c r="D5">
-        <v>0.2236773157834406</v>
+        <v>0.1035762657647794</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.073354941408162</v>
+        <v>0.4345330232531524</v>
       </c>
       <c r="G5">
-        <v>0.5200942355342164</v>
+        <v>0.2302496629896567</v>
       </c>
       <c r="H5">
-        <v>0.6748084258694576</v>
+        <v>0.2353540388133553</v>
       </c>
       <c r="I5">
-        <v>0.6439924292284793</v>
+        <v>0.2135518973239527</v>
       </c>
       <c r="J5">
-        <v>0.1812326970291034</v>
+        <v>0.06081400067042075</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.3860931927477651</v>
+        <v>0.3149196178549545</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>2.357475048796942</v>
+        <v>0.9293708877606832</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,37 +609,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.154500834163116</v>
+        <v>2.589622398750294</v>
       </c>
       <c r="C6">
-        <v>0.2323766805954506</v>
+        <v>0.4127543816725563</v>
       </c>
       <c r="D6">
-        <v>0.2236467766638839</v>
+        <v>0.1032832564914585</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.073811784726324</v>
+        <v>0.4343609508641606</v>
       </c>
       <c r="G6">
-        <v>0.5203774424562013</v>
+        <v>0.2301198399217199</v>
       </c>
       <c r="H6">
-        <v>0.6751367067324949</v>
+        <v>0.2355800136303827</v>
       </c>
       <c r="I6">
-        <v>0.6445075175213386</v>
+        <v>0.2142494555918333</v>
       </c>
       <c r="J6">
-        <v>0.181336426124215</v>
+        <v>0.06096661987200314</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.3856411713809678</v>
+        <v>0.3131468507373256</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>2.358750122678998</v>
+        <v>0.9295517129442175</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,37 +656,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.195878707289921</v>
+        <v>2.717790252021302</v>
       </c>
       <c r="C7">
-        <v>0.2369969148255393</v>
+        <v>0.426584750500183</v>
       </c>
       <c r="D7">
-        <v>0.2238653441324061</v>
+        <v>0.1053250262462626</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.070701383343042</v>
+        <v>0.4356554602230673</v>
       </c>
       <c r="G7">
-        <v>0.5184508998158393</v>
+        <v>0.2310955367486898</v>
       </c>
       <c r="H7">
-        <v>0.67288916739966</v>
+        <v>0.2340594156336664</v>
       </c>
       <c r="I7">
-        <v>0.6409709704827495</v>
+        <v>0.2094747782229671</v>
       </c>
       <c r="J7">
-        <v>0.1806236031412585</v>
+        <v>0.05991767545464866</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.3887887987957583</v>
+        <v>0.3254647632054883</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>2.350047101910562</v>
+        <v>0.9285541487714255</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,37 +703,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.377998254199554</v>
+        <v>3.282974896147039</v>
       </c>
       <c r="C8">
-        <v>0.2573458497254819</v>
+        <v>0.4876418609557902</v>
       </c>
       <c r="D8">
-        <v>0.2249924668718961</v>
+        <v>0.1145384448589581</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.058475466339985</v>
+        <v>0.4439351853766951</v>
       </c>
       <c r="G8">
-        <v>0.5109212643922376</v>
+        <v>0.2373257816559757</v>
       </c>
       <c r="H8">
-        <v>0.6637404989705331</v>
+        <v>0.2285701878077617</v>
       </c>
       <c r="I8">
-        <v>0.6263240682000397</v>
+        <v>0.1901175237258173</v>
       </c>
       <c r="J8">
-        <v>0.1776554304714439</v>
+        <v>0.05555076991779639</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.4029268184140591</v>
+        <v>0.3801689542633255</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>2.315292107099083</v>
+        <v>0.9307670530059369</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,37 +750,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.733274424020976</v>
+        <v>4.391718419178744</v>
       </c>
       <c r="C9">
-        <v>0.2970878127940182</v>
+        <v>0.6076489395640579</v>
       </c>
       <c r="D9">
-        <v>0.2277827930866607</v>
+        <v>0.1334040470106856</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.039893468838763</v>
+        <v>0.4703071932672884</v>
       </c>
       <c r="G9">
-        <v>0.4996600917148655</v>
+        <v>0.2572651480248922</v>
       </c>
       <c r="H9">
-        <v>0.648564180911734</v>
+        <v>0.2225511351211154</v>
       </c>
       <c r="I9">
-        <v>0.6010557018564544</v>
+        <v>0.1588276865945115</v>
       </c>
       <c r="J9">
-        <v>0.1724715797029379</v>
+        <v>0.04797379937939539</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.4315278708312746</v>
+        <v>0.4889769987843238</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>2.260278754688997</v>
+        <v>0.961335841249749</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,37 +797,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.99304925807229</v>
+        <v>5.208556166818425</v>
       </c>
       <c r="C10">
-        <v>0.3261718707782393</v>
+        <v>0.6961825709524874</v>
       </c>
       <c r="D10">
-        <v>0.2301829741705745</v>
+        <v>0.1478197429007508</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.029532745360328</v>
+        <v>0.4967697999152634</v>
       </c>
       <c r="G10">
-        <v>0.4935340957283216</v>
+        <v>0.2774263595617299</v>
       </c>
       <c r="H10">
-        <v>0.6390987371702863</v>
+        <v>0.2213787722636411</v>
       </c>
       <c r="I10">
-        <v>0.584602455300983</v>
+        <v>0.1404154470324404</v>
       </c>
       <c r="J10">
-        <v>0.1690503501220899</v>
+        <v>0.04305287107823297</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.4530644106797723</v>
+        <v>0.5701498136090066</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>2.227894638160222</v>
+        <v>1.002238312421781</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,37 +844,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.110934805366981</v>
+        <v>5.581128337918472</v>
       </c>
       <c r="C11">
-        <v>0.339375075837097</v>
+        <v>0.7365863519748075</v>
       </c>
       <c r="D11">
-        <v>0.2313501960975657</v>
+        <v>0.1545145865130308</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.025534940208921</v>
+        <v>0.5105610241365852</v>
       </c>
       <c r="G11">
-        <v>0.4912159554734998</v>
+        <v>0.2879846076860275</v>
       </c>
       <c r="H11">
-        <v>0.6351583527060569</v>
+        <v>0.2216352916854447</v>
       </c>
       <c r="I11">
-        <v>0.5775771124644606</v>
+        <v>0.1331528023731412</v>
       </c>
       <c r="J11">
-        <v>0.167577875106562</v>
+        <v>0.04096484090355901</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.4629734198082076</v>
+        <v>0.6074159551257594</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>2.214911782538536</v>
+        <v>1.02542912593654</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,37 +891,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.155531290526028</v>
+        <v>5.722395923471311</v>
       </c>
       <c r="C12">
-        <v>0.3443705491201285</v>
+        <v>0.7519090205042005</v>
       </c>
       <c r="D12">
-        <v>0.2318029631245366</v>
+        <v>0.1570708704435617</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.02412400060804</v>
+        <v>0.5160545180856957</v>
       </c>
       <c r="G12">
-        <v>0.4904057108221735</v>
+        <v>0.2921990468669975</v>
       </c>
       <c r="H12">
-        <v>0.6337187863515226</v>
+        <v>0.2218535262723691</v>
       </c>
       <c r="I12">
-        <v>0.5749829636059864</v>
+        <v>0.1305734148492519</v>
       </c>
       <c r="J12">
-        <v>0.1670323357967298</v>
+        <v>0.04019673367734367</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.4667415668328943</v>
+        <v>0.6215828008600823</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>2.210247397056634</v>
+        <v>1.034921625431735</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,37 +938,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.145928651782526</v>
+        <v>5.691962622360052</v>
       </c>
       <c r="C13">
-        <v>0.3432948814173358</v>
+        <v>0.7486079353505488</v>
       </c>
       <c r="D13">
-        <v>0.2317049739999391</v>
+        <v>0.1565193679425789</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.024423292089324</v>
+        <v>0.5148590258489776</v>
       </c>
       <c r="G13">
-        <v>0.4905772024946913</v>
+        <v>0.2912814938338641</v>
       </c>
       <c r="H13">
-        <v>0.6340264843579746</v>
+        <v>0.2218010147225584</v>
       </c>
       <c r="I13">
-        <v>0.5755387135722856</v>
+        <v>0.1311211565425623</v>
       </c>
       <c r="J13">
-        <v>0.1671492913586405</v>
+        <v>0.04036113930783181</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.4659293297047782</v>
+        <v>0.6185291715942185</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>2.211240743562939</v>
+        <v>1.032844784279575</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,37 +985,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.114604687648409</v>
+        <v>5.592746604789795</v>
       </c>
       <c r="C14">
-        <v>0.3397861446019306</v>
+        <v>0.7378464792713828</v>
       </c>
       <c r="D14">
-        <v>0.2313872301718902</v>
+        <v>0.1547244625869979</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.025416797801682</v>
+        <v>0.5110074319613105</v>
       </c>
       <c r="G14">
-        <v>0.4911479405219552</v>
+        <v>0.2883268975887034</v>
       </c>
       <c r="H14">
-        <v>0.6350388650197587</v>
+        <v>0.2216507741924261</v>
       </c>
       <c r="I14">
-        <v>0.5773623627751459</v>
+        <v>0.1329371071892478</v>
       </c>
       <c r="J14">
-        <v>0.1675327516805121</v>
+        <v>0.04090119005453641</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.4632831120404006</v>
+        <v>0.6085803322668539</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>2.214522988869561</v>
+        <v>1.026195530486973</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,37 +1032,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.095412011724193</v>
+        <v>5.531998962517946</v>
       </c>
       <c r="C15">
-        <v>0.3376363718325024</v>
+        <v>0.7312578494460809</v>
       </c>
       <c r="D15">
-        <v>0.2311940027328063</v>
+        <v>0.1536278205347799</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1.026038757150403</v>
+        <v>0.5086841020296688</v>
       </c>
       <c r="G15">
-        <v>0.4915063414690053</v>
+        <v>0.2865458039865061</v>
       </c>
       <c r="H15">
-        <v>0.6356658242148114</v>
+        <v>0.2215747494299336</v>
       </c>
       <c r="I15">
-        <v>0.5784880255695288</v>
+        <v>0.1340720054449971</v>
       </c>
       <c r="J15">
-        <v>0.1677692020058847</v>
+        <v>0.04123495672218436</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.4616642794433261</v>
+        <v>0.6024937259781638</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>2.216566282480315</v>
+        <v>1.022216801749465</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,37 +1079,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.985339130512102</v>
+        <v>5.184230976136689</v>
       </c>
       <c r="C16">
-        <v>0.3253084295436111</v>
+        <v>0.6935450292641292</v>
       </c>
       <c r="D16">
-        <v>0.2301082038728879</v>
+        <v>0.1473850934238357</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.029808412457136</v>
+        <v>0.4959053826325217</v>
       </c>
       <c r="G16">
-        <v>0.4936950383192311</v>
+        <v>0.2767656740466222</v>
       </c>
       <c r="H16">
-        <v>0.6393636064441921</v>
+        <v>0.2213785332428344</v>
       </c>
       <c r="I16">
-        <v>0.5850708332053003</v>
+        <v>0.1409133811935419</v>
       </c>
       <c r="J16">
-        <v>0.1691482669617912</v>
+        <v>0.04319243673874862</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.4524190624023561</v>
+        <v>0.5677217365469573</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>2.22877832880522</v>
+        <v>1.00081930457138</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,37 +1126,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.917737324343705</v>
+        <v>4.971167555395823</v>
       </c>
       <c r="C17">
-        <v>0.3177383842711095</v>
+        <v>0.6704453375836863</v>
       </c>
       <c r="D17">
-        <v>0.2294613533463945</v>
+        <v>0.1435914450740654</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.032304245264697</v>
+        <v>0.4885282030608948</v>
       </c>
       <c r="G17">
-        <v>0.4951578969553339</v>
+        <v>0.2711327182097989</v>
       </c>
       <c r="H17">
-        <v>0.6417256978934063</v>
+        <v>0.221465653977468</v>
       </c>
       <c r="I17">
-        <v>0.5892269198889384</v>
+        <v>0.1454028912502494</v>
       </c>
       <c r="J17">
-        <v>0.17001575428921</v>
+        <v>0.04443249142030581</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.4467758929702939</v>
+        <v>0.5464815514565942</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>2.236718271937164</v>
+        <v>0.988902299302282</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,37 +1173,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.878827680503207</v>
+        <v>4.848709553915398</v>
       </c>
       <c r="C18">
-        <v>0.3133817488221382</v>
+        <v>0.6571709239352401</v>
       </c>
       <c r="D18">
-        <v>0.2290964002958162</v>
+        <v>0.1414222528704272</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.033807108945254</v>
+        <v>0.4844488655798926</v>
       </c>
       <c r="G18">
-        <v>0.4960433901501773</v>
+        <v>0.268022253748029</v>
       </c>
       <c r="H18">
-        <v>0.6431187115503079</v>
+        <v>0.2215896281476333</v>
       </c>
       <c r="I18">
-        <v>0.5916606158415636</v>
+        <v>0.1480892343138631</v>
       </c>
       <c r="J18">
-        <v>0.1705226035329872</v>
+        <v>0.04515984679058516</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.4435406428405599</v>
+        <v>0.5342963951177069</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>2.241449699313577</v>
+        <v>0.9824761559035267</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,37 +1220,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.865649016799978</v>
+        <v>4.807261731861956</v>
       </c>
       <c r="C19">
-        <v>0.3119062410688969</v>
+        <v>0.6526783651138999</v>
       </c>
       <c r="D19">
-        <v>0.2289740548036576</v>
+        <v>0.1406899618140471</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.034327513796597</v>
+        <v>0.4830952507785682</v>
       </c>
       <c r="G19">
-        <v>0.4963507702748871</v>
+        <v>0.2669908438072923</v>
       </c>
       <c r="H19">
-        <v>0.6435962700298674</v>
+        <v>0.2216440687742889</v>
       </c>
       <c r="I19">
-        <v>0.5924920429178293</v>
+        <v>0.149016345850832</v>
       </c>
       <c r="J19">
-        <v>0.1706955698098271</v>
+        <v>0.04540851227900866</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.442447063390432</v>
+        <v>0.5301759669530242</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>2.243079932402566</v>
+        <v>0.9803724043141955</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,37 +1267,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.924936454307726</v>
+        <v>4.993838876970528</v>
       </c>
       <c r="C20">
-        <v>0.3185444946768712</v>
+        <v>0.6729030775950378</v>
       </c>
       <c r="D20">
-        <v>0.2295294775707504</v>
+        <v>0.143993949492085</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.032031590977851</v>
+        <v>0.4892964281878633</v>
       </c>
       <c r="G20">
-        <v>0.4949976079735166</v>
+        <v>0.2717188385609646</v>
       </c>
       <c r="H20">
-        <v>0.6414706887343726</v>
+        <v>0.2214486822040342</v>
       </c>
       <c r="I20">
-        <v>0.5887800226993107</v>
+        <v>0.1449141260323046</v>
       </c>
       <c r="J20">
-        <v>0.1699225918651823</v>
+        <v>0.04429901865597952</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.4473755279276332</v>
+        <v>0.5487392887692408</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>2.235856014466378</v>
+        <v>0.9901262053318192</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,37 +1314,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.123806518121626</v>
+        <v>5.621883460550919</v>
       </c>
       <c r="C21">
-        <v>0.3408168651346557</v>
+        <v>0.741006731764287</v>
       </c>
       <c r="D21">
-        <v>0.231480267642155</v>
+        <v>0.1552510859189766</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.025122186654279</v>
+        <v>0.5121312250239001</v>
       </c>
       <c r="G21">
-        <v>0.4909784651153117</v>
+        <v>0.2891887252264667</v>
       </c>
       <c r="H21">
-        <v>0.634740077385004</v>
+        <v>0.2216915545746758</v>
       </c>
       <c r="I21">
-        <v>0.5768249150960898</v>
+        <v>0.1323989934982936</v>
       </c>
       <c r="J21">
-        <v>0.1674197929493282</v>
+        <v>0.04074194336048986</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.464059943140569</v>
+        <v>0.6115010054312506</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>2.213552072642159</v>
+        <v>1.028128864022619</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,37 +1361,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.253520564414771</v>
+        <v>6.033432277430393</v>
       </c>
       <c r="C22">
-        <v>0.3553479485161404</v>
+        <v>0.7856504430250482</v>
       </c>
       <c r="D22">
-        <v>0.2328179373431709</v>
+        <v>0.1627319213520622</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.021206553545689</v>
+        <v>0.5286446965789295</v>
       </c>
       <c r="G22">
-        <v>0.4887457499119137</v>
+        <v>0.3018754565051012</v>
       </c>
       <c r="H22">
-        <v>0.6306476684464428</v>
+        <v>0.2225599800823943</v>
       </c>
       <c r="I22">
-        <v>0.5693974695559945</v>
+        <v>0.1252207750586507</v>
       </c>
       <c r="J22">
-        <v>0.1658543333303761</v>
+        <v>0.03854930541358392</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.4750562590509446</v>
+        <v>0.6528429262801012</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>2.200443867104696</v>
+        <v>1.057134318645268</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,37 +1408,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.184314389785925</v>
+        <v>5.81366741119848</v>
       </c>
       <c r="C23">
-        <v>0.3475948632912775</v>
+        <v>0.7618095714574906</v>
       </c>
       <c r="D23">
-        <v>0.2320982832269749</v>
+        <v>0.1587274651803909</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.023241469785724</v>
+        <v>0.5196791144608142</v>
       </c>
       <c r="G23">
-        <v>0.4899012730356276</v>
+        <v>0.2949823263654991</v>
       </c>
       <c r="H23">
-        <v>0.6328038206920326</v>
+        <v>0.222028932366527</v>
       </c>
       <c r="I23">
-        <v>0.5733262782484587</v>
+        <v>0.1289565906744592</v>
       </c>
       <c r="J23">
-        <v>0.1666834206731878</v>
+        <v>0.03970714380637919</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.4691789829947481</v>
+        <v>0.6307462519338713</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>2.20730542564479</v>
+        <v>1.041254245487721</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,37 +1455,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.921681865934204</v>
+        <v>4.983589066495711</v>
       </c>
       <c r="C24">
-        <v>0.3181800662000001</v>
+        <v>0.6717919152380887</v>
       </c>
       <c r="D24">
-        <v>0.2294986570183397</v>
+        <v>0.1438119405104032</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.032154646246525</v>
+        <v>0.488948610739584</v>
       </c>
       <c r="G24">
-        <v>0.4950699360974866</v>
+        <v>0.2714534561288531</v>
       </c>
       <c r="H24">
-        <v>0.6415858693035688</v>
+        <v>0.2214561255632574</v>
       </c>
       <c r="I24">
-        <v>0.5889819269183505</v>
+        <v>0.1451347697184637</v>
       </c>
       <c r="J24">
-        <v>0.1699646853061632</v>
+        <v>0.04435931681243854</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.4471044046509718</v>
+        <v>0.5477184848582084</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>2.236245322005885</v>
+        <v>0.9895715571708905</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,37 +1502,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.637373651876715</v>
+        <v>4.091532895260116</v>
       </c>
       <c r="C25">
-        <v>0.2863555384331846</v>
+        <v>0.5751350823649091</v>
       </c>
       <c r="D25">
-        <v>0.2269661988934502</v>
+        <v>0.1282081187453983</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.044342640518643</v>
+        <v>0.4619971751775012</v>
       </c>
       <c r="G25">
-        <v>0.5023302008476094</v>
+        <v>0.2509641375558616</v>
       </c>
       <c r="H25">
-        <v>0.6523739052205144</v>
+        <v>0.223635846890474</v>
       </c>
       <c r="I25">
-        <v>0.6075210846492354</v>
+        <v>0.1665274355386277</v>
       </c>
       <c r="J25">
-        <v>0.1738058678406915</v>
+        <v>0.04991351103595054</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.4236978361714563</v>
+        <v>0.4593479305204085</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>2.27375208391112</v>
+        <v>0.95001351291981</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_9/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_9/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.436071370786635</v>
+        <v>2.296845233634315</v>
       </c>
       <c r="C2">
-        <v>0.5041970800764659</v>
+        <v>0.3768554414584031</v>
       </c>
       <c r="D2">
-        <v>0.1170864251653185</v>
+        <v>0.1238062847884649</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.446832573652479</v>
+        <v>0.6165237857673134</v>
       </c>
       <c r="G2">
-        <v>0.2395082000002162</v>
+        <v>0.3662279221026168</v>
       </c>
       <c r="H2">
-        <v>0.2273914915690867</v>
+        <v>0.0005581176631279661</v>
       </c>
       <c r="I2">
-        <v>0.185306094404412</v>
+        <v>0.0004700625323414975</v>
       </c>
       <c r="J2">
-        <v>0.05443275102897704</v>
+        <v>0.3050371364781341</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.2999112713801857</v>
       </c>
       <c r="L2">
-        <v>0.3950844795872257</v>
+        <v>0.09651668696617932</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.3590193786277922</v>
       </c>
       <c r="O2">
-        <v>0.9330555613566531</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0.9180882175448062</v>
+      </c>
+      <c r="Q2">
+        <v>1.363646569365841</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.992036790567568</v>
+        <v>2.002971675982849</v>
       </c>
       <c r="C3">
-        <v>0.4561988705569888</v>
+        <v>0.3448275675148977</v>
       </c>
       <c r="D3">
-        <v>0.1097554580253899</v>
+        <v>0.1155622681891018</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.4391747172191245</v>
+        <v>0.5881045109982423</v>
       </c>
       <c r="G3">
-        <v>0.2337435329864732</v>
+        <v>0.3453582800566579</v>
       </c>
       <c r="H3">
-        <v>0.2311606790296139</v>
+        <v>0.001265402725002973</v>
       </c>
       <c r="I3">
-        <v>0.1997530176376259</v>
+        <v>0.0006831024250004702</v>
       </c>
       <c r="J3">
-        <v>0.05774894227576199</v>
+        <v>0.2990926984030082</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.3002231310102417</v>
       </c>
       <c r="L3">
-        <v>0.3519346482051446</v>
+        <v>0.0938178074805105</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.3206859246925546</v>
       </c>
       <c r="O3">
-        <v>0.9283442761586542</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0.9116270982430024</v>
+      </c>
+      <c r="Q3">
+        <v>1.306686209009257</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.719289676157871</v>
+        <v>1.821763259907414</v>
       </c>
       <c r="C4">
-        <v>0.4267465893986753</v>
+        <v>0.3252108910125457</v>
       </c>
       <c r="D4">
-        <v>0.1053490258019494</v>
+        <v>0.1105310112973257</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.4356719714912813</v>
+        <v>0.5710937627887631</v>
       </c>
       <c r="G4">
-        <v>0.2311079705986856</v>
+        <v>0.3328717005567015</v>
       </c>
       <c r="H4">
-        <v>0.2340422747621531</v>
+        <v>0.001865483775147614</v>
       </c>
       <c r="I4">
-        <v>0.209419822502305</v>
+        <v>0.0009746869674946979</v>
       </c>
       <c r="J4">
-        <v>0.05990554277222238</v>
+        <v>0.2956811254136014</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.300652916005884</v>
       </c>
       <c r="L4">
-        <v>0.3256090754763648</v>
+        <v>0.09211051092221823</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.2972004979976361</v>
       </c>
       <c r="O4">
-        <v>0.9285459853397953</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0.908344035198887</v>
+      </c>
+      <c r="Q4">
+        <v>1.272897607467712</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.608090750595181</v>
+        <v>1.746785504645544</v>
       </c>
       <c r="C5">
-        <v>0.4147468557716536</v>
+        <v>0.3176209478262848</v>
       </c>
       <c r="D5">
-        <v>0.1035762657647794</v>
+        <v>0.1084943689562721</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.4345330232531524</v>
+        <v>0.5638969442116917</v>
       </c>
       <c r="G5">
-        <v>0.2302496629896567</v>
+        <v>0.3275475145527409</v>
       </c>
       <c r="H5">
-        <v>0.2353540388133553</v>
+        <v>0.002151574155880187</v>
       </c>
       <c r="I5">
-        <v>0.2135518973239527</v>
+        <v>0.001201738911113637</v>
       </c>
       <c r="J5">
-        <v>0.06081400067042075</v>
+        <v>0.2941877366381931</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.3006402434997213</v>
       </c>
       <c r="L5">
-        <v>0.3149196178549545</v>
+        <v>0.09136552396611464</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.2877907347338891</v>
       </c>
       <c r="O5">
-        <v>0.9293708877606832</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0.9075362062582215</v>
+      </c>
+      <c r="Q5">
+        <v>1.258410409861199</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.589622398750294</v>
+        <v>1.733173815616425</v>
       </c>
       <c r="C6">
-        <v>0.4127543816725563</v>
+        <v>0.3168450260681084</v>
       </c>
       <c r="D6">
-        <v>0.1032832564914585</v>
+        <v>0.1081644373243549</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.4343609508641606</v>
+        <v>0.5622551863242293</v>
       </c>
       <c r="G6">
-        <v>0.2301198399217199</v>
+        <v>0.3262844359976071</v>
       </c>
       <c r="H6">
-        <v>0.2355800136303827</v>
+        <v>0.002203437533982888</v>
       </c>
       <c r="I6">
-        <v>0.2142494555918333</v>
+        <v>0.001334158826681531</v>
       </c>
       <c r="J6">
-        <v>0.06096661987200314</v>
+        <v>0.2937461343465202</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.3003412889521684</v>
       </c>
       <c r="L6">
-        <v>0.3131468507373256</v>
+        <v>0.09119668568698636</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>0.2864123684745294</v>
       </c>
       <c r="O6">
-        <v>0.9295517129442175</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0.907857772009514</v>
+      </c>
+      <c r="Q6">
+        <v>1.254795576733855</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.717790252021302</v>
+        <v>1.817601783681027</v>
       </c>
       <c r="C7">
-        <v>0.426584750500183</v>
+        <v>0.3264345130123729</v>
       </c>
       <c r="D7">
-        <v>0.1053250262462626</v>
+        <v>0.1105250330535839</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.4356554602230673</v>
+        <v>0.5697590308453044</v>
       </c>
       <c r="G7">
-        <v>0.2310955367486898</v>
+        <v>0.3317512867727856</v>
       </c>
       <c r="H7">
-        <v>0.2340594156336664</v>
+        <v>0.001874056541753877</v>
       </c>
       <c r="I7">
-        <v>0.2094747782229671</v>
+        <v>0.00121471513397875</v>
       </c>
       <c r="J7">
-        <v>0.05991767545464866</v>
+        <v>0.2951228470034124</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.2998331252200437</v>
       </c>
       <c r="L7">
-        <v>0.3254647632054883</v>
+        <v>0.09197987860725121</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>0.297575752687095</v>
       </c>
       <c r="O7">
-        <v>0.9285541487714255</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0.9095630597235456</v>
+      </c>
+      <c r="Q7">
+        <v>1.269351861623576</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.282974896147039</v>
+        <v>2.191464086516191</v>
       </c>
       <c r="C8">
-        <v>0.4876418609557902</v>
+        <v>0.3675775733409381</v>
       </c>
       <c r="D8">
-        <v>0.1145384448589581</v>
+        <v>0.1209862190370359</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.4439351853766951</v>
+        <v>0.6049939028536073</v>
       </c>
       <c r="G8">
-        <v>0.2373257816559757</v>
+        <v>0.3575724176947972</v>
       </c>
       <c r="H8">
-        <v>0.2285701878077617</v>
+        <v>0.0007703901566704641</v>
       </c>
       <c r="I8">
-        <v>0.1901175237258173</v>
+        <v>0.0007934251846020146</v>
       </c>
       <c r="J8">
-        <v>0.05555076991779639</v>
+        <v>0.302226880621923</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.2988891291286073</v>
       </c>
       <c r="L8">
-        <v>0.3801689542633255</v>
+        <v>0.09543892635578111</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>0.3464593614892806</v>
       </c>
       <c r="O8">
-        <v>0.9307670530059369</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0.9174017928354345</v>
+      </c>
+      <c r="Q8">
+        <v>1.339320693552736</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.391718419178744</v>
+        <v>2.924323686337118</v>
       </c>
       <c r="C9">
-        <v>0.6076489395640579</v>
+        <v>0.4463603630804585</v>
       </c>
       <c r="D9">
-        <v>0.1334040470106856</v>
+        <v>0.141725563783254</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.4703071932672884</v>
+        <v>0.680015909584256</v>
       </c>
       <c r="G9">
-        <v>0.2572651480248922</v>
+        <v>0.4129002912443838</v>
       </c>
       <c r="H9">
-        <v>0.2225511351211154</v>
+        <v>3.531158299097115E-07</v>
       </c>
       <c r="I9">
-        <v>0.1588276865945115</v>
+        <v>0.0009694809867983878</v>
       </c>
       <c r="J9">
-        <v>0.04797379937939539</v>
+        <v>0.3191008998358313</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>0.3004773739542941</v>
       </c>
       <c r="L9">
-        <v>0.4889769987843238</v>
+        <v>0.102050873828194</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>0.4419196478767873</v>
       </c>
       <c r="O9">
-        <v>0.961335841249749</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0.9361359323214486</v>
+      </c>
+      <c r="Q9">
+        <v>1.492578023406935</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.208556166818425</v>
+        <v>3.444412383258054</v>
       </c>
       <c r="C10">
-        <v>0.6961825709524874</v>
+        <v>0.5083638587751125</v>
       </c>
       <c r="D10">
-        <v>0.1478197429007508</v>
+        <v>0.1544401353621367</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.4967697999152634</v>
+        <v>0.7286719754252147</v>
       </c>
       <c r="G10">
-        <v>0.2774263595617299</v>
+        <v>0.4498948471709241</v>
       </c>
       <c r="H10">
-        <v>0.2213787722636411</v>
+        <v>0.0005475029479593552</v>
       </c>
       <c r="I10">
-        <v>0.1404154470324404</v>
+        <v>0.002141870013880443</v>
       </c>
       <c r="J10">
-        <v>0.04305287107823297</v>
+        <v>0.3300013748965114</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>0.2994342917310036</v>
       </c>
       <c r="L10">
-        <v>0.5701498136090066</v>
+        <v>0.1046315077198532</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>0.4981165556199727</v>
       </c>
       <c r="O10">
-        <v>1.002238312421781</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0.9601557218136918</v>
+      </c>
+      <c r="Q10">
+        <v>1.594253686529441</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.581128337918472</v>
+        <v>3.558074594350558</v>
       </c>
       <c r="C11">
-        <v>0.7365863519748075</v>
+        <v>0.5658561548097225</v>
       </c>
       <c r="D11">
-        <v>0.1545145865130308</v>
+        <v>0.1374440845314098</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.5105610241365852</v>
+        <v>0.677101043006509</v>
       </c>
       <c r="G11">
-        <v>0.2879846076860275</v>
+        <v>0.4212130932558438</v>
       </c>
       <c r="H11">
-        <v>0.2216352916854447</v>
+        <v>0.01910606707911455</v>
       </c>
       <c r="I11">
-        <v>0.1331528023731412</v>
+        <v>0.003013396626439402</v>
       </c>
       <c r="J11">
-        <v>0.04096484090355901</v>
+        <v>0.3122269447262767</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>0.2715946688779844</v>
       </c>
       <c r="L11">
-        <v>0.6074159551257594</v>
+        <v>0.09511008392820242</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>0.404310354038202</v>
       </c>
       <c r="O11">
-        <v>1.02542912593654</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>1.0282303032524</v>
+      </c>
+      <c r="Q11">
+        <v>1.496398617239294</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.722395923471311</v>
+        <v>3.547252144236211</v>
       </c>
       <c r="C12">
-        <v>0.7519090205042005</v>
+        <v>0.6006592933318018</v>
       </c>
       <c r="D12">
-        <v>0.1570708704435617</v>
+        <v>0.1214339160661311</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>0.5160545180856957</v>
+        <v>0.626093455854118</v>
       </c>
       <c r="G12">
-        <v>0.2921990468669975</v>
+        <v>0.3911453875919619</v>
       </c>
       <c r="H12">
-        <v>0.2218535262723691</v>
+        <v>0.05770855868791358</v>
       </c>
       <c r="I12">
-        <v>0.1305734148492519</v>
+        <v>0.003065470057880049</v>
       </c>
       <c r="J12">
-        <v>0.04019673367734367</v>
+        <v>0.2957711145690212</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>0.2504867911782753</v>
       </c>
       <c r="L12">
-        <v>0.6215828008600823</v>
+        <v>0.09591954696226779</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>0.3217696379719825</v>
       </c>
       <c r="O12">
-        <v>1.034921625431735</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>1.082719313118943</v>
+      </c>
+      <c r="Q12">
+        <v>1.39825731064883</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.691962622360052</v>
+        <v>3.435097569965876</v>
       </c>
       <c r="C13">
-        <v>0.7486079353505488</v>
+        <v>0.6217769240159612</v>
       </c>
       <c r="D13">
-        <v>0.1565193679425789</v>
+        <v>0.1053538336584268</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.5148590258489776</v>
+        <v>0.570656553746538</v>
       </c>
       <c r="G13">
-        <v>0.2912814938338641</v>
+        <v>0.3565906737931499</v>
       </c>
       <c r="H13">
-        <v>0.2218010147225584</v>
+        <v>0.1133268272816395</v>
       </c>
       <c r="I13">
-        <v>0.1311211565425623</v>
+        <v>0.002815984273684791</v>
       </c>
       <c r="J13">
-        <v>0.04036113930783181</v>
+        <v>0.2784921721877254</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>0.2319970660063575</v>
       </c>
       <c r="L13">
-        <v>0.6185291715942185</v>
+        <v>0.1042883879263812</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>0.2443216814910301</v>
       </c>
       <c r="O13">
-        <v>1.032844784279575</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>1.130873735066004</v>
+      </c>
+      <c r="Q13">
+        <v>1.288798886080968</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.592746604789795</v>
+        <v>3.310152411151932</v>
       </c>
       <c r="C14">
-        <v>0.7378464792713828</v>
+        <v>0.6308410787690946</v>
       </c>
       <c r="D14">
-        <v>0.1547244625869979</v>
+        <v>0.09431161243360719</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>0.5110074319613105</v>
+        <v>0.5300176837762507</v>
       </c>
       <c r="G14">
-        <v>0.2883268975887034</v>
+        <v>0.3303781975446469</v>
       </c>
       <c r="H14">
-        <v>0.2216507741924261</v>
+        <v>0.1625678487553301</v>
       </c>
       <c r="I14">
-        <v>0.1329371071892478</v>
+        <v>0.002599175362150596</v>
       </c>
       <c r="J14">
-        <v>0.04090119005453641</v>
+        <v>0.2659998929374012</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>0.2202791828788371</v>
       </c>
       <c r="L14">
-        <v>0.6085803322668539</v>
+        <v>0.1146577272957998</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>0.1942427756046641</v>
       </c>
       <c r="O14">
-        <v>1.026195530486973</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>1.162263315721418</v>
+      </c>
+      <c r="Q14">
+        <v>1.207017999564158</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.531998962517946</v>
+        <v>3.257318044665851</v>
       </c>
       <c r="C15">
-        <v>0.7312578494460809</v>
+        <v>0.6305211957828192</v>
       </c>
       <c r="D15">
-        <v>0.1536278205347799</v>
+        <v>0.09149982652745337</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.5086841020296688</v>
+        <v>0.5187437367945122</v>
       </c>
       <c r="G15">
-        <v>0.2865458039865061</v>
+        <v>0.3226966488299752</v>
       </c>
       <c r="H15">
-        <v>0.2215747494299336</v>
+        <v>0.1750313571715054</v>
       </c>
       <c r="I15">
-        <v>0.1340720054449971</v>
+        <v>0.002597431248279491</v>
       </c>
       <c r="J15">
-        <v>0.04123495672218436</v>
+        <v>0.2626213592826261</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>0.2176570299339033</v>
       </c>
       <c r="L15">
-        <v>0.6024937259781638</v>
+        <v>0.1175905593430286</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>0.1821521866687448</v>
       </c>
       <c r="O15">
-        <v>1.022216801749465</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>1.168540788281419</v>
+      </c>
+      <c r="Q15">
+        <v>1.18362754688971</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.184230976136689</v>
+        <v>3.057026453119363</v>
       </c>
       <c r="C16">
-        <v>0.6935450292641292</v>
+        <v>0.5994581911061516</v>
       </c>
       <c r="D16">
-        <v>0.1473850934238357</v>
+        <v>0.08966725547285392</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.4959053826325217</v>
+        <v>0.5089549606027859</v>
       </c>
       <c r="G16">
-        <v>0.2767656740466222</v>
+        <v>0.3134370977672631</v>
       </c>
       <c r="H16">
-        <v>0.2213785332428344</v>
+        <v>0.1620741534605372</v>
       </c>
       <c r="I16">
-        <v>0.1409133811935419</v>
+        <v>0.002231856661706999</v>
       </c>
       <c r="J16">
-        <v>0.04319243673874862</v>
+        <v>0.2611313119454479</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>0.2213526718208385</v>
       </c>
       <c r="L16">
-        <v>0.5677217365469573</v>
+        <v>0.1143569647291649</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>0.1760705259195063</v>
       </c>
       <c r="O16">
-        <v>1.00081930457138</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>1.145993390938116</v>
+      </c>
+      <c r="Q16">
+        <v>1.160700288511876</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.971167555395823</v>
+        <v>2.969563701356037</v>
       </c>
       <c r="C17">
-        <v>0.6704453375836863</v>
+        <v>0.5709505044916625</v>
       </c>
       <c r="D17">
-        <v>0.1435914450740654</v>
+        <v>0.09397418637583144</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.4885282030608948</v>
+        <v>0.5228334482127508</v>
       </c>
       <c r="G17">
-        <v>0.2711327182097989</v>
+        <v>0.3201700146997197</v>
       </c>
       <c r="H17">
-        <v>0.221465653977468</v>
+        <v>0.1241949239993687</v>
       </c>
       <c r="I17">
-        <v>0.1454028912502494</v>
+        <v>0.002100802949249747</v>
       </c>
       <c r="J17">
-        <v>0.04443249142030581</v>
+        <v>0.2666153797169954</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>0.2303196054139889</v>
       </c>
       <c r="L17">
-        <v>0.5464815514565942</v>
+        <v>0.1056287704609318</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>0.1968374745792971</v>
       </c>
       <c r="O17">
-        <v>0.988902299302282</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>1.112403372432084</v>
+      </c>
+      <c r="Q17">
+        <v>1.186349373633675</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.848709553915398</v>
+        <v>2.971165688872759</v>
       </c>
       <c r="C18">
-        <v>0.6571709239352401</v>
+        <v>0.5406429635532675</v>
       </c>
       <c r="D18">
-        <v>0.1414222528704272</v>
+        <v>0.1046360438397613</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.4844488655798926</v>
+        <v>0.5601629880757031</v>
       </c>
       <c r="G18">
-        <v>0.268022253748029</v>
+        <v>0.3424476119376294</v>
       </c>
       <c r="H18">
-        <v>0.2215896281476333</v>
+        <v>0.07135234591891049</v>
       </c>
       <c r="I18">
-        <v>0.1480892343138631</v>
+        <v>0.001840954189343158</v>
       </c>
       <c r="J18">
-        <v>0.04515984679058516</v>
+        <v>0.2791739820691532</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>0.245868832201797</v>
       </c>
       <c r="L18">
-        <v>0.5342963951177069</v>
+        <v>0.0955378111228633</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>0.2477218514874977</v>
       </c>
       <c r="O18">
-        <v>0.9824761559035267</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>1.065716880413618</v>
+      </c>
+      <c r="Q18">
+        <v>1.259817745157193</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.807261731861956</v>
+        <v>3.037948052008915</v>
       </c>
       <c r="C19">
-        <v>0.6526783651138999</v>
+        <v>0.5148352121051971</v>
       </c>
       <c r="D19">
-        <v>0.1406899618140471</v>
+        <v>0.1206454849893817</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.4830952507785682</v>
+        <v>0.6130418800002815</v>
       </c>
       <c r="G19">
-        <v>0.2669908438072923</v>
+        <v>0.374586463915648</v>
       </c>
       <c r="H19">
-        <v>0.2216440687742889</v>
+        <v>0.02615990558642523</v>
       </c>
       <c r="I19">
-        <v>0.149016345850832</v>
+        <v>0.002013503838902864</v>
       </c>
       <c r="J19">
-        <v>0.04540851227900866</v>
+        <v>0.2958789593607491</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>0.2653122642769219</v>
       </c>
       <c r="L19">
-        <v>0.5301759669530242</v>
+        <v>0.09163406984981437</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>0.3275687833449723</v>
       </c>
       <c r="O19">
-        <v>0.9803724043141955</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>1.017343623248578</v>
+      </c>
+      <c r="Q19">
+        <v>1.362921444809814</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.993838876970528</v>
+        <v>3.297432581220221</v>
       </c>
       <c r="C20">
-        <v>0.6729030775950378</v>
+        <v>0.4964913154059332</v>
       </c>
       <c r="D20">
-        <v>0.143993949492085</v>
+        <v>0.1510462992127657</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>0.4892964281878633</v>
+        <v>0.7115228019714479</v>
       </c>
       <c r="G20">
-        <v>0.2717188385609646</v>
+        <v>0.4365543034265755</v>
       </c>
       <c r="H20">
-        <v>0.2214486822040342</v>
+        <v>0.0003149451409769632</v>
       </c>
       <c r="I20">
-        <v>0.1449141260323046</v>
+        <v>0.002503183904432049</v>
       </c>
       <c r="J20">
-        <v>0.04429901865597952</v>
+        <v>0.3252786061949706</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>0.2969877979634674</v>
       </c>
       <c r="L20">
-        <v>0.5487392887692408</v>
+        <v>0.1035292475021894</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>0.4843107471773322</v>
       </c>
       <c r="O20">
-        <v>0.9901262053318192</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>0.95808739766602</v>
+      </c>
+      <c r="Q20">
+        <v>1.555973799503931</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.621883460550919</v>
+        <v>3.718104602038125</v>
       </c>
       <c r="C21">
-        <v>0.741006731764287</v>
+        <v>0.5388332473330308</v>
       </c>
       <c r="D21">
-        <v>0.1552510859189766</v>
+        <v>0.1650757664013867</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>0.5121312250239001</v>
+        <v>0.7636701090234297</v>
       </c>
       <c r="G21">
-        <v>0.2891887252264667</v>
+        <v>0.4743590448243395</v>
       </c>
       <c r="H21">
-        <v>0.2216915545746758</v>
+        <v>0.0008730767041920107</v>
       </c>
       <c r="I21">
-        <v>0.1323989934982936</v>
+        <v>0.003619330186690917</v>
       </c>
       <c r="J21">
-        <v>0.04074194336048986</v>
+        <v>0.3384535844317043</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>0.3020658473982571</v>
       </c>
       <c r="L21">
-        <v>0.6115010054312506</v>
+        <v>0.1086304920457675</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>0.5499354080166654</v>
       </c>
       <c r="O21">
-        <v>1.028128864022619</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>0.9680652102036618</v>
+      </c>
+      <c r="Q21">
+        <v>1.664023683328253</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6.033432277430393</v>
+        <v>3.989982904256067</v>
       </c>
       <c r="C22">
-        <v>0.7856504430250482</v>
+        <v>0.5663546210893458</v>
       </c>
       <c r="D22">
-        <v>0.1627319213520622</v>
+        <v>0.1728723863784865</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>0.5286446965789295</v>
+        <v>0.7956418384871569</v>
       </c>
       <c r="G22">
-        <v>0.3018754565051012</v>
+        <v>0.4982779992889874</v>
       </c>
       <c r="H22">
-        <v>0.2225599800823943</v>
+        <v>0.001516300675155513</v>
       </c>
       <c r="I22">
-        <v>0.1252207750586507</v>
+        <v>0.004254722750434148</v>
       </c>
       <c r="J22">
-        <v>0.03854930541358392</v>
+        <v>0.3467320110205634</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>0.3051100071670483</v>
       </c>
       <c r="L22">
-        <v>0.6528429262801012</v>
+        <v>0.1110612343997648</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>0.5848241117145108</v>
       </c>
       <c r="O22">
-        <v>1.057134318645268</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>0.9765119931485486</v>
+      </c>
+      <c r="Q22">
+        <v>1.732265104601055</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.81366741119848</v>
+        <v>3.84877690373628</v>
       </c>
       <c r="C23">
-        <v>0.7618095714574906</v>
+        <v>0.5500071604379855</v>
       </c>
       <c r="D23">
-        <v>0.1587274651803909</v>
+        <v>0.1686794670308842</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>0.5196791144608142</v>
+        <v>0.7799777534973344</v>
       </c>
       <c r="G23">
-        <v>0.2949823263654991</v>
+        <v>0.4867050701017632</v>
       </c>
       <c r="H23">
-        <v>0.222028932366527</v>
+        <v>0.001155859683549476</v>
       </c>
       <c r="I23">
-        <v>0.1289565906744592</v>
+        <v>0.003614396903341976</v>
       </c>
       <c r="J23">
-        <v>0.03970714380637919</v>
+        <v>0.3429133463128267</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>0.3044019484304705</v>
       </c>
       <c r="L23">
-        <v>0.6307462519338713</v>
+        <v>0.1099014410372323</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>0.5655819853457871</v>
       </c>
       <c r="O23">
-        <v>1.041254245487721</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>0.9702816718928631</v>
+      </c>
+      <c r="Q23">
+        <v>1.699628937966338</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.983589066495711</v>
+        <v>3.30693744317432</v>
       </c>
       <c r="C24">
-        <v>0.6717919152380887</v>
+        <v>0.490952862854158</v>
       </c>
       <c r="D24">
-        <v>0.1438119405104032</v>
+        <v>0.1529352834451458</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>0.488948610739584</v>
+        <v>0.719591089215136</v>
       </c>
       <c r="G24">
-        <v>0.2714534561288531</v>
+        <v>0.4419214656388561</v>
       </c>
       <c r="H24">
-        <v>0.2214561255632574</v>
+        <v>0.0002180870518622147</v>
       </c>
       <c r="I24">
-        <v>0.1451347697184637</v>
+        <v>0.002044454482435398</v>
       </c>
       <c r="J24">
-        <v>0.04435931681243854</v>
+        <v>0.3280691907400524</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>0.300846266797965</v>
       </c>
       <c r="L24">
-        <v>0.5477184848582084</v>
+        <v>0.1052389070399151</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>0.4939136257701904</v>
       </c>
       <c r="O24">
-        <v>0.9895715571708905</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>0.9508781884874224</v>
+      </c>
+      <c r="Q24">
+        <v>1.57319220511971</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.091532895260116</v>
+        <v>2.720863896678281</v>
       </c>
       <c r="C25">
-        <v>0.5751350823649091</v>
+        <v>0.4274438182332574</v>
       </c>
       <c r="D25">
-        <v>0.1282081187453983</v>
+        <v>0.1361241305970324</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0.4619971751775012</v>
+        <v>0.6570541554481224</v>
       </c>
       <c r="G25">
-        <v>0.2509641375558616</v>
+        <v>0.3957012763929839</v>
       </c>
       <c r="H25">
-        <v>0.223635846890474</v>
+        <v>4.80591373677175E-05</v>
       </c>
       <c r="I25">
-        <v>0.1665274355386277</v>
+        <v>0.001169215450357086</v>
       </c>
       <c r="J25">
-        <v>0.04991351103595054</v>
+        <v>0.3133436644754823</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>0.2983598266706338</v>
       </c>
       <c r="L25">
-        <v>0.4593479305204085</v>
+        <v>0.1000898366784977</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>0.4169489886012343</v>
       </c>
       <c r="O25">
-        <v>0.95001351291981</v>
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0.9328288464111552</v>
+      </c>
+      <c r="Q25">
+        <v>1.443896985143709</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_9/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_9/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.296845233634315</v>
+        <v>2.244974596785426</v>
       </c>
       <c r="C2">
-        <v>0.3768554414584031</v>
+        <v>0.3846517960047038</v>
       </c>
       <c r="D2">
-        <v>0.1238062847884649</v>
+        <v>0.1238941391690389</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.6165237857673134</v>
+        <v>0.5919046354600113</v>
       </c>
       <c r="G2">
-        <v>0.3662279221026168</v>
+        <v>0.3275744316878928</v>
       </c>
       <c r="H2">
-        <v>0.0005581176631279661</v>
+        <v>0.0004427743532168238</v>
       </c>
       <c r="I2">
-        <v>0.0004700625323414975</v>
+        <v>0.0005367241202680617</v>
       </c>
       <c r="J2">
-        <v>0.3050371364781341</v>
+        <v>0.3317156935496115</v>
       </c>
       <c r="K2">
-        <v>0.2999112713801857</v>
+        <v>0.2786606738710375</v>
       </c>
       <c r="L2">
-        <v>0.09651668696617932</v>
+        <v>0.1487947145881705</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.06925515198779308</v>
       </c>
       <c r="N2">
-        <v>0.3590193786277922</v>
+        <v>0.09258132221578919</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.9180882175448062</v>
+        <v>0.3715446168267675</v>
       </c>
       <c r="Q2">
-        <v>1.363646569365841</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0.9298960038117343</v>
+      </c>
+      <c r="S2">
+        <v>1.297950580292891</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.002971675982849</v>
+        <v>1.962522309694293</v>
       </c>
       <c r="C3">
-        <v>0.3448275675148977</v>
+        <v>0.3469547521351615</v>
       </c>
       <c r="D3">
-        <v>0.1155622681891018</v>
+        <v>0.1157187382208136</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.5881045109982423</v>
+        <v>0.566708544876505</v>
       </c>
       <c r="G3">
-        <v>0.3453582800566579</v>
+        <v>0.3099399683120865</v>
       </c>
       <c r="H3">
-        <v>0.001265402725002973</v>
+        <v>0.001042374935686263</v>
       </c>
       <c r="I3">
-        <v>0.0006831024250004702</v>
+        <v>0.0006105245685628091</v>
       </c>
       <c r="J3">
-        <v>0.2990926984030082</v>
+        <v>0.3249719612226869</v>
       </c>
       <c r="K3">
-        <v>0.3002231310102417</v>
+        <v>0.2804267415997472</v>
       </c>
       <c r="L3">
-        <v>0.0938178074805105</v>
+        <v>0.1532742316253426</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.06743686584818676</v>
       </c>
       <c r="N3">
-        <v>0.3206859246925546</v>
+        <v>0.09027415937271677</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.9116270982430024</v>
+        <v>0.3317336552691899</v>
       </c>
       <c r="Q3">
-        <v>1.306686209009257</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0.9164871828145635</v>
+      </c>
+      <c r="S3">
+        <v>1.24931109567855</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.821763259907414</v>
+        <v>1.788069925120453</v>
       </c>
       <c r="C4">
-        <v>0.3252108910125457</v>
+        <v>0.3239623011216395</v>
       </c>
       <c r="D4">
-        <v>0.1105310112973257</v>
+        <v>0.1107349878099981</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.5710937627887631</v>
+        <v>0.5515668270694718</v>
       </c>
       <c r="G4">
-        <v>0.3328717005567015</v>
+        <v>0.2994276183098634</v>
       </c>
       <c r="H4">
-        <v>0.001865483775147614</v>
+        <v>0.001556964596831745</v>
       </c>
       <c r="I4">
-        <v>0.0009746869674946979</v>
+        <v>0.0007944339888594776</v>
       </c>
       <c r="J4">
-        <v>0.2956811254136014</v>
+        <v>0.3209053539621465</v>
       </c>
       <c r="K4">
-        <v>0.300652916005884</v>
+        <v>0.2816778185593698</v>
       </c>
       <c r="L4">
-        <v>0.09211051092221823</v>
+        <v>0.156129345290303</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.06684634862427785</v>
       </c>
       <c r="N4">
-        <v>0.2972004979976361</v>
+        <v>0.08880664504859581</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.908344035198887</v>
+        <v>0.3073760149186029</v>
       </c>
       <c r="Q4">
-        <v>1.272897607467712</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0.9090244991113252</v>
+      </c>
+      <c r="S4">
+        <v>1.220309385942883</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.746785504645544</v>
+        <v>1.715780976786874</v>
       </c>
       <c r="C5">
-        <v>0.3176209478262848</v>
+        <v>0.3150478519458204</v>
       </c>
       <c r="D5">
-        <v>0.1084943689562721</v>
+        <v>0.1087193784984919</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.5638969442116917</v>
+        <v>0.5451075788291035</v>
       </c>
       <c r="G5">
-        <v>0.3275475145527409</v>
+        <v>0.2949124254863449</v>
       </c>
       <c r="H5">
-        <v>0.002151574155880187</v>
+        <v>0.001803407867710827</v>
       </c>
       <c r="I5">
-        <v>0.001201738911113637</v>
+        <v>0.000984829737411097</v>
       </c>
       <c r="J5">
-        <v>0.2941877366381931</v>
+        <v>0.3190997111675102</v>
       </c>
       <c r="K5">
-        <v>0.3006402434997213</v>
+        <v>0.2819916967938525</v>
       </c>
       <c r="L5">
-        <v>0.09136552396611464</v>
+        <v>0.157194419632205</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.06668266778111764</v>
       </c>
       <c r="N5">
-        <v>0.2877907347338891</v>
+        <v>0.08816093951049453</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.9075362062582215</v>
+        <v>0.2976232104718264</v>
       </c>
       <c r="Q5">
-        <v>1.258410409861199</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0.9065576809491134</v>
+      </c>
+      <c r="S5">
+        <v>1.20770607616555</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.733173815616425</v>
+        <v>1.702610164932793</v>
       </c>
       <c r="C6">
-        <v>0.3168450260681084</v>
+        <v>0.3140843009066572</v>
       </c>
       <c r="D6">
-        <v>0.1081644373243549</v>
+        <v>0.1083933728613502</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.5622551863242293</v>
+        <v>0.5435902574634568</v>
       </c>
       <c r="G6">
-        <v>0.3262844359976071</v>
+        <v>0.2937932402292844</v>
       </c>
       <c r="H6">
-        <v>0.002203437533982888</v>
+        <v>0.001848213677269062</v>
       </c>
       <c r="I6">
-        <v>0.001334158826681531</v>
+        <v>0.0011276671289977</v>
       </c>
       <c r="J6">
-        <v>0.2937461343465202</v>
+        <v>0.3185975389716447</v>
       </c>
       <c r="K6">
-        <v>0.3003412889521684</v>
+        <v>0.2817576481707711</v>
       </c>
       <c r="L6">
-        <v>0.09119668568698636</v>
+        <v>0.157221151785734</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.06659636066707275</v>
       </c>
       <c r="N6">
-        <v>0.2864123684745294</v>
+        <v>0.08801069809779705</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.907857772009514</v>
+        <v>0.2961926951503671</v>
       </c>
       <c r="Q6">
-        <v>1.254795576733855</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0.9066326460495233</v>
+      </c>
+      <c r="S6">
+        <v>1.20441428275943</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.817601783681027</v>
+        <v>1.78279153982848</v>
       </c>
       <c r="C7">
-        <v>0.3264345130123729</v>
+        <v>0.3247947962816653</v>
       </c>
       <c r="D7">
-        <v>0.1105250330535839</v>
+        <v>0.1108709716840934</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.5697590308453044</v>
+        <v>0.5495328321613542</v>
       </c>
       <c r="G7">
-        <v>0.3317512867727856</v>
+        <v>0.3011008917593045</v>
       </c>
       <c r="H7">
-        <v>0.001874056541753877</v>
+        <v>0.001566987065208192</v>
       </c>
       <c r="I7">
-        <v>0.00121471513397875</v>
+        <v>0.001078740064042627</v>
       </c>
       <c r="J7">
-        <v>0.2951228470034124</v>
+        <v>0.3163100531180447</v>
       </c>
       <c r="K7">
-        <v>0.2998331252200437</v>
+        <v>0.2806187264077451</v>
       </c>
       <c r="L7">
-        <v>0.09197987860725121</v>
+        <v>0.1555986257713045</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.06658207641958214</v>
       </c>
       <c r="N7">
-        <v>0.297575752687095</v>
+        <v>0.08867640809809707</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7">
-        <v>0.9095630597235456</v>
+        <v>0.3076986522852536</v>
       </c>
       <c r="Q7">
-        <v>1.269351861623576</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0.9107881388573134</v>
+      </c>
+      <c r="S7">
+        <v>1.214615632585904</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.191464086516191</v>
+        <v>2.139734967627078</v>
       </c>
       <c r="C8">
-        <v>0.3675775733409381</v>
+        <v>0.3719771668375103</v>
       </c>
       <c r="D8">
-        <v>0.1209862190370359</v>
+        <v>0.1215706416671765</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.6049939028536073</v>
+        <v>0.5791402144412388</v>
       </c>
       <c r="G8">
-        <v>0.3575724176947972</v>
+        <v>0.3293166495135367</v>
       </c>
       <c r="H8">
-        <v>0.0007703901566704641</v>
+        <v>0.000626423591690628</v>
       </c>
       <c r="I8">
-        <v>0.0007934251846020146</v>
+        <v>0.0008725134034550663</v>
       </c>
       <c r="J8">
-        <v>0.302226880621923</v>
+        <v>0.3155315024021945</v>
       </c>
       <c r="K8">
-        <v>0.2988891291286073</v>
+        <v>0.2773003723842606</v>
       </c>
       <c r="L8">
-        <v>0.09543892635578111</v>
+        <v>0.1494170109821766</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.06795123702636552</v>
       </c>
       <c r="N8">
-        <v>0.3464593614892806</v>
+        <v>0.09162798976161213</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8">
-        <v>0.9174017928354345</v>
+        <v>0.358285169462917</v>
       </c>
       <c r="Q8">
-        <v>1.339320693552736</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0.9286073085551152</v>
+      </c>
+      <c r="S8">
+        <v>1.269285644876376</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.924323686337118</v>
+        <v>2.841457251403369</v>
       </c>
       <c r="C9">
-        <v>0.4463603630804585</v>
+        <v>0.4649385090083911</v>
       </c>
       <c r="D9">
-        <v>0.141725563783254</v>
+        <v>0.1423037572487118</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.680015909584256</v>
+        <v>0.6448014815496421</v>
       </c>
       <c r="G9">
-        <v>0.4129002912443838</v>
+        <v>0.379088555023344</v>
       </c>
       <c r="H9">
-        <v>3.531158299097115E-07</v>
+        <v>2.624578560261881E-06</v>
       </c>
       <c r="I9">
-        <v>0.0009694809867983878</v>
+        <v>0.001203285850454705</v>
       </c>
       <c r="J9">
-        <v>0.3191008998358313</v>
+        <v>0.3298184179062247</v>
       </c>
       <c r="K9">
-        <v>0.3004773739542941</v>
+        <v>0.2745750243807272</v>
       </c>
       <c r="L9">
-        <v>0.102050873828194</v>
+        <v>0.1392793834157864</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.07550978911481465</v>
       </c>
       <c r="N9">
-        <v>0.4419196478767873</v>
+        <v>0.09724877158391365</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9">
-        <v>0.9361359323214486</v>
+        <v>0.4575504661785033</v>
       </c>
       <c r="Q9">
-        <v>1.492578023406935</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0.9656463965172293</v>
+      </c>
+      <c r="S9">
+        <v>1.397806904101685</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.444412383258054</v>
+        <v>3.331603435131512</v>
       </c>
       <c r="C10">
-        <v>0.5083638587751125</v>
+        <v>0.5348502368546804</v>
       </c>
       <c r="D10">
-        <v>0.1544401353621367</v>
+        <v>0.1558608611199901</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.7286719754252147</v>
+        <v>0.6825069068891807</v>
       </c>
       <c r="G10">
-        <v>0.4498948471709241</v>
+        <v>0.4291767646630689</v>
       </c>
       <c r="H10">
-        <v>0.0005475029479593552</v>
+        <v>0.0005369259905934065</v>
       </c>
       <c r="I10">
-        <v>0.002141870013880443</v>
+        <v>0.002365867446804337</v>
       </c>
       <c r="J10">
-        <v>0.3300013748965114</v>
+        <v>0.3164781071826752</v>
       </c>
       <c r="K10">
-        <v>0.2994342917310036</v>
+        <v>0.2689980629205913</v>
       </c>
       <c r="L10">
-        <v>0.1046315077198532</v>
+        <v>0.1307446271732395</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>0.08184318032250104</v>
       </c>
       <c r="N10">
-        <v>0.4981165556199727</v>
+        <v>0.0993389039454744</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10">
-        <v>0.9601557218136918</v>
+        <v>0.5159282810003276</v>
       </c>
       <c r="Q10">
-        <v>1.594253686529441</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>1.006799557172116</v>
+      </c>
+      <c r="S10">
+        <v>1.46850826650001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.558074594350558</v>
+        <v>3.43077531168268</v>
       </c>
       <c r="C11">
-        <v>0.5658561548097225</v>
+        <v>0.5883451034155485</v>
       </c>
       <c r="D11">
-        <v>0.1374440845314098</v>
+        <v>0.140279154291477</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.677101043006509</v>
+        <v>0.6254790897518916</v>
       </c>
       <c r="G11">
-        <v>0.4212130932558438</v>
+        <v>0.438650989585625</v>
       </c>
       <c r="H11">
-        <v>0.01910606707911455</v>
+        <v>0.01907412796718688</v>
       </c>
       <c r="I11">
-        <v>0.003013396626439402</v>
+        <v>0.003286505401140616</v>
       </c>
       <c r="J11">
-        <v>0.3122269447262767</v>
+        <v>0.2607435175535286</v>
       </c>
       <c r="K11">
-        <v>0.2715946688779844</v>
+        <v>0.2414506359722495</v>
       </c>
       <c r="L11">
-        <v>0.09511008392820242</v>
+        <v>0.1185079349631941</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>0.07453041527156401</v>
       </c>
       <c r="N11">
-        <v>0.404310354038202</v>
+        <v>0.09170521698546841</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11">
-        <v>1.0282303032524</v>
+        <v>0.4190612594576208</v>
       </c>
       <c r="Q11">
-        <v>1.496398617239294</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>1.088754905449335</v>
+      </c>
+      <c r="S11">
+        <v>1.351687051871238</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.547252144236211</v>
+        <v>3.418624465306891</v>
       </c>
       <c r="C12">
-        <v>0.6006592933318018</v>
+        <v>0.6191084794733968</v>
       </c>
       <c r="D12">
-        <v>0.1214339160661311</v>
+        <v>0.1246087618347218</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>0.626093455854118</v>
+        <v>0.5750770592958148</v>
       </c>
       <c r="G12">
-        <v>0.3911453875919619</v>
+        <v>0.4264344840631509</v>
       </c>
       <c r="H12">
-        <v>0.05770855868791358</v>
+        <v>0.05767483172284216</v>
       </c>
       <c r="I12">
-        <v>0.003065470057880049</v>
+        <v>0.003321515287071364</v>
       </c>
       <c r="J12">
-        <v>0.2957711145690212</v>
+        <v>0.2331776215180952</v>
       </c>
       <c r="K12">
-        <v>0.2504867911782753</v>
+        <v>0.2225361555252547</v>
       </c>
       <c r="L12">
-        <v>0.09591954696226779</v>
+        <v>0.1113471002966264</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>0.06789770369790205</v>
       </c>
       <c r="N12">
-        <v>0.3217696379719825</v>
+        <v>0.09397613059489629</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
       <c r="P12">
-        <v>1.082719313118943</v>
+        <v>0.3338839010819328</v>
       </c>
       <c r="Q12">
-        <v>1.39825731064883</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>1.149090837016857</v>
+      </c>
+      <c r="S12">
+        <v>1.252853534910543</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.435097569965876</v>
+        <v>3.318289401678726</v>
       </c>
       <c r="C13">
-        <v>0.6217769240159612</v>
+        <v>0.6376812566614944</v>
       </c>
       <c r="D13">
-        <v>0.1053538336584268</v>
+        <v>0.1079060702725911</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.570656553746538</v>
+        <v>0.5260823259762688</v>
       </c>
       <c r="G13">
-        <v>0.3565906737931499</v>
+        <v>0.3881724442011034</v>
       </c>
       <c r="H13">
-        <v>0.1133268272816395</v>
+        <v>0.1133058007645076</v>
       </c>
       <c r="I13">
-        <v>0.002815984273684791</v>
+        <v>0.003089239443330172</v>
       </c>
       <c r="J13">
-        <v>0.2784921721877254</v>
+        <v>0.2259009289612663</v>
       </c>
       <c r="K13">
-        <v>0.2319970660063575</v>
+        <v>0.2081088409598024</v>
       </c>
       <c r="L13">
-        <v>0.1042883879263812</v>
+        <v>0.106799403191296</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>0.06132435513642065</v>
       </c>
       <c r="N13">
-        <v>0.2443216814910301</v>
+        <v>0.1036018331204467</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13">
-        <v>1.130873735066004</v>
+        <v>0.2540856069091291</v>
       </c>
       <c r="Q13">
-        <v>1.288798886080968</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>1.194870324680977</v>
+      </c>
+      <c r="S13">
+        <v>1.160612790538494</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.310152411151932</v>
+        <v>3.207237061804108</v>
       </c>
       <c r="C14">
-        <v>0.6308410787690946</v>
+        <v>0.6456907301089529</v>
       </c>
       <c r="D14">
-        <v>0.09431161243360719</v>
+        <v>0.09611981138365167</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>0.5300176837762507</v>
+        <v>0.4921265053399537</v>
       </c>
       <c r="G14">
-        <v>0.3303781975446469</v>
+        <v>0.3509762118501669</v>
       </c>
       <c r="H14">
-        <v>0.1625678487553301</v>
+        <v>0.1625580149496386</v>
       </c>
       <c r="I14">
-        <v>0.002599175362150596</v>
+        <v>0.002910731864571581</v>
       </c>
       <c r="J14">
-        <v>0.2659998929374012</v>
+        <v>0.2283186096985261</v>
       </c>
       <c r="K14">
-        <v>0.2202791828788371</v>
+        <v>0.1998250100220478</v>
       </c>
       <c r="L14">
-        <v>0.1146577272957998</v>
+        <v>0.1045697086465616</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>0.05682439186285926</v>
       </c>
       <c r="N14">
-        <v>0.1942427756046641</v>
+        <v>0.1147363596264483</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
       <c r="P14">
-        <v>1.162263315721418</v>
+        <v>0.2024996710223093</v>
       </c>
       <c r="Q14">
-        <v>1.207017999564158</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>1.220628557948871</v>
+      </c>
+      <c r="S14">
+        <v>1.097763136176127</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.257318044665851</v>
+        <v>3.16023155596821</v>
       </c>
       <c r="C15">
-        <v>0.6305211957828192</v>
+        <v>0.6454598267065137</v>
       </c>
       <c r="D15">
-        <v>0.09149982652745337</v>
+        <v>0.09300465251493506</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.5187437367945122</v>
+        <v>0.4834344328154714</v>
       </c>
       <c r="G15">
-        <v>0.3226966488299752</v>
+        <v>0.3372258801582575</v>
       </c>
       <c r="H15">
-        <v>0.1750313571715054</v>
+        <v>0.1750255792620408</v>
       </c>
       <c r="I15">
-        <v>0.002597431248279491</v>
+        <v>0.002945656569385058</v>
       </c>
       <c r="J15">
-        <v>0.2626213592826261</v>
+        <v>0.2321058567047913</v>
       </c>
       <c r="K15">
-        <v>0.2176570299339033</v>
+        <v>0.1983276258280693</v>
       </c>
       <c r="L15">
-        <v>0.1175905593430286</v>
+        <v>0.1043474677554581</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.05565562624263798</v>
       </c>
       <c r="N15">
-        <v>0.1821521866687448</v>
+        <v>0.1178451424190747</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15">
-        <v>1.168540788281419</v>
+        <v>0.1900647467531158</v>
       </c>
       <c r="Q15">
-        <v>1.18362754688971</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>1.223890470385399</v>
+      </c>
+      <c r="S15">
+        <v>1.081987212277653</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.057026453119363</v>
+        <v>2.980817812890223</v>
       </c>
       <c r="C16">
-        <v>0.5994581911061516</v>
+        <v>0.6165724289203922</v>
       </c>
       <c r="D16">
-        <v>0.08966725547285392</v>
+        <v>0.0901035265418102</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.5089549606027859</v>
+        <v>0.4818761198541353</v>
       </c>
       <c r="G16">
-        <v>0.3134370977672631</v>
+        <v>0.3004039553262672</v>
       </c>
       <c r="H16">
-        <v>0.1620741534605372</v>
+        <v>0.1620751065491959</v>
       </c>
       <c r="I16">
-        <v>0.002231856661706999</v>
+        <v>0.002641201761827361</v>
       </c>
       <c r="J16">
-        <v>0.2611313119454479</v>
+        <v>0.2622406415127614</v>
       </c>
       <c r="K16">
-        <v>0.2213526718208385</v>
+        <v>0.2044886647862523</v>
       </c>
       <c r="L16">
-        <v>0.1143569647291649</v>
+        <v>0.1079762636625379</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.05540973942619409</v>
       </c>
       <c r="N16">
-        <v>0.1760705259195063</v>
+        <v>0.1145767493976066</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
       <c r="P16">
-        <v>1.145993390938116</v>
+        <v>0.1840219918493915</v>
       </c>
       <c r="Q16">
-        <v>1.160700288511876</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>1.187412190848207</v>
+      </c>
+      <c r="S16">
+        <v>1.084615297985138</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.969563701356037</v>
+        <v>2.900178996013096</v>
       </c>
       <c r="C17">
-        <v>0.5709505044916625</v>
+        <v>0.5893107982759034</v>
       </c>
       <c r="D17">
-        <v>0.09397418637583144</v>
+        <v>0.09403421093188058</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.5228334482127508</v>
+        <v>0.4979731008730397</v>
       </c>
       <c r="G17">
-        <v>0.3201700146997197</v>
+        <v>0.2951059144053474</v>
       </c>
       <c r="H17">
-        <v>0.1241949239993687</v>
+        <v>0.1241906404134028</v>
       </c>
       <c r="I17">
-        <v>0.002100802949249747</v>
+        <v>0.002533427554578083</v>
       </c>
       <c r="J17">
-        <v>0.2666153797169954</v>
+        <v>0.2818426340054714</v>
       </c>
       <c r="K17">
-        <v>0.2303196054139889</v>
+        <v>0.2134844177702355</v>
       </c>
       <c r="L17">
-        <v>0.1056287704609318</v>
+        <v>0.112179117243647</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.05737638730098737</v>
       </c>
       <c r="N17">
-        <v>0.1968374745792971</v>
+        <v>0.1054030260948942</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
       <c r="P17">
-        <v>1.112403372432084</v>
+        <v>0.2055606786896007</v>
       </c>
       <c r="Q17">
-        <v>1.186349373633675</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>1.147785720933456</v>
+      </c>
+      <c r="S17">
+        <v>1.117827447665405</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.971165688872759</v>
+        <v>2.900182492110673</v>
       </c>
       <c r="C18">
-        <v>0.5406429635532675</v>
+        <v>0.5605988133174833</v>
       </c>
       <c r="D18">
-        <v>0.1046360438397613</v>
+        <v>0.1046045876601482</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.5601629880757031</v>
+        <v>0.5339705630994729</v>
       </c>
       <c r="G18">
-        <v>0.3424476119376294</v>
+        <v>0.3105139476030772</v>
       </c>
       <c r="H18">
-        <v>0.07135234591891049</v>
+        <v>0.0713462931437121</v>
       </c>
       <c r="I18">
-        <v>0.001840954189343158</v>
+        <v>0.002231200048799842</v>
       </c>
       <c r="J18">
-        <v>0.2791739820691532</v>
+        <v>0.2998151776187825</v>
       </c>
       <c r="K18">
-        <v>0.245868832201797</v>
+        <v>0.227329347631148</v>
       </c>
       <c r="L18">
-        <v>0.0955378111228633</v>
+        <v>0.1179238088115255</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.06182218315144539</v>
       </c>
       <c r="N18">
-        <v>0.2477218514874977</v>
+        <v>0.09440199429612761</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
       <c r="P18">
-        <v>1.065716880413618</v>
+        <v>0.2580988538114326</v>
       </c>
       <c r="Q18">
-        <v>1.259817745157193</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>1.099159098000612</v>
+      </c>
+      <c r="S18">
+        <v>1.188584004752897</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.037948052008915</v>
+        <v>2.959821172877923</v>
       </c>
       <c r="C19">
-        <v>0.5148352121051971</v>
+        <v>0.5370613792428287</v>
       </c>
       <c r="D19">
-        <v>0.1206454849893817</v>
+        <v>0.1206825605196045</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.6130418800002815</v>
+        <v>0.5831607362339781</v>
       </c>
       <c r="G19">
-        <v>0.374586463915648</v>
+        <v>0.3380424535670414</v>
       </c>
       <c r="H19">
-        <v>0.02615990558642523</v>
+        <v>0.02615970510224486</v>
       </c>
       <c r="I19">
-        <v>0.002013503838902864</v>
+        <v>0.00242775751912383</v>
       </c>
       <c r="J19">
-        <v>0.2958789593607491</v>
+        <v>0.3169284079612851</v>
       </c>
       <c r="K19">
-        <v>0.2653122642769219</v>
+        <v>0.2438824251676301</v>
       </c>
       <c r="L19">
-        <v>0.09163406984981437</v>
+        <v>0.1243806702449159</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.06785680882033596</v>
       </c>
       <c r="N19">
-        <v>0.3275687833449723</v>
+        <v>0.08914651084992542</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
       <c r="P19">
-        <v>1.017343623248578</v>
+        <v>0.3404059179279102</v>
       </c>
       <c r="Q19">
-        <v>1.362921444809814</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>1.051377177758326</v>
+      </c>
+      <c r="S19">
+        <v>1.282389680112203</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.297432581220221</v>
+        <v>3.196980101524559</v>
       </c>
       <c r="C20">
-        <v>0.4964913154059332</v>
+        <v>0.522951952950649</v>
       </c>
       <c r="D20">
-        <v>0.1510462992127657</v>
+        <v>0.1517240141293286</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>0.7115228019714479</v>
+        <v>0.6709783144836976</v>
       </c>
       <c r="G20">
-        <v>0.4365543034265755</v>
+        <v>0.4021734588032473</v>
       </c>
       <c r="H20">
-        <v>0.0003149451409769632</v>
+        <v>0.0003192149834037039</v>
       </c>
       <c r="I20">
-        <v>0.002503183904432049</v>
+        <v>0.002907904256701066</v>
       </c>
       <c r="J20">
-        <v>0.3252786061949706</v>
+        <v>0.3316041326858965</v>
       </c>
       <c r="K20">
-        <v>0.2969877979634674</v>
+        <v>0.2689325193535339</v>
       </c>
       <c r="L20">
-        <v>0.1035292475021894</v>
+        <v>0.1323840342343683</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>0.07946095653440111</v>
       </c>
       <c r="N20">
-        <v>0.4843107471773322</v>
+        <v>0.09842158924724309</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
       <c r="P20">
-        <v>0.95808739766602</v>
+        <v>0.5017875180429172</v>
       </c>
       <c r="Q20">
-        <v>1.555973799503931</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0.9985469806613878</v>
+      </c>
+      <c r="S20">
+        <v>1.44683877323294</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.718104602038125</v>
+        <v>3.569415048678877</v>
       </c>
       <c r="C21">
-        <v>0.5388332473330308</v>
+        <v>0.5626983040316418</v>
       </c>
       <c r="D21">
-        <v>0.1650757664013867</v>
+        <v>0.1693109435053088</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>0.7636701090234297</v>
+        <v>0.6996951135961211</v>
       </c>
       <c r="G21">
-        <v>0.4743590448243395</v>
+        <v>0.5065593358203415</v>
       </c>
       <c r="H21">
-        <v>0.0008730767041920107</v>
+        <v>0.0007976625668453252</v>
       </c>
       <c r="I21">
-        <v>0.003619330186690917</v>
+        <v>0.003884572151713783</v>
       </c>
       <c r="J21">
-        <v>0.3384535844317043</v>
+        <v>0.2625336003179584</v>
       </c>
       <c r="K21">
-        <v>0.3020658473982571</v>
+        <v>0.264561577009534</v>
       </c>
       <c r="L21">
-        <v>0.1086304920457675</v>
+        <v>0.1260743603930514</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>0.08477993489173841</v>
       </c>
       <c r="N21">
-        <v>0.5499354080166654</v>
+        <v>0.1026720722305576</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
       <c r="P21">
-        <v>0.9680652102036618</v>
+        <v>0.5686046917805356</v>
       </c>
       <c r="Q21">
-        <v>1.664023683328253</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>1.032790780314315</v>
+      </c>
+      <c r="S21">
+        <v>1.485724603954907</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.989982904256067</v>
+        <v>3.80773739206569</v>
       </c>
       <c r="C22">
-        <v>0.5663546210893458</v>
+        <v>0.5875469558806117</v>
       </c>
       <c r="D22">
-        <v>0.1728723863784865</v>
+        <v>0.1797695541210373</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>0.7956418384871569</v>
+        <v>0.7152159995915071</v>
       </c>
       <c r="G22">
-        <v>0.4982779992889874</v>
+        <v>0.583401523876006</v>
       </c>
       <c r="H22">
-        <v>0.001516300675155513</v>
+        <v>0.001347907168146367</v>
       </c>
       <c r="I22">
-        <v>0.004254722750434148</v>
+        <v>0.004313525815668129</v>
       </c>
       <c r="J22">
-        <v>0.3467320110205634</v>
+        <v>0.222084476803623</v>
       </c>
       <c r="K22">
-        <v>0.3051100071670483</v>
+        <v>0.2610793760778201</v>
       </c>
       <c r="L22">
-        <v>0.1110612343997648</v>
+        <v>0.1218850130088338</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>0.08828153962998897</v>
       </c>
       <c r="N22">
-        <v>0.5848241117145108</v>
+        <v>0.1046900385337342</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
       <c r="P22">
-        <v>0.9765119931485486</v>
+        <v>0.6039517783165422</v>
       </c>
       <c r="Q22">
-        <v>1.732265104601055</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>1.058299710369951</v>
+      </c>
+      <c r="S22">
+        <v>1.505238791840441</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.84877690373628</v>
+        <v>3.687669661562381</v>
       </c>
       <c r="C23">
-        <v>0.5500071604379855</v>
+        <v>0.5737803576173519</v>
       </c>
       <c r="D23">
-        <v>0.1686794670308842</v>
+        <v>0.1737326244423372</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>0.7799777534973344</v>
+        <v>0.710219337273756</v>
       </c>
       <c r="G23">
-        <v>0.4867050701017632</v>
+        <v>0.5347043700435705</v>
       </c>
       <c r="H23">
-        <v>0.001155859683549476</v>
+        <v>0.00104409640467007</v>
       </c>
       <c r="I23">
-        <v>0.003614396903341976</v>
+        <v>0.003730453826420899</v>
       </c>
       <c r="J23">
-        <v>0.3429133463128267</v>
+        <v>0.2503387560589019</v>
       </c>
       <c r="K23">
-        <v>0.3044019484304705</v>
+        <v>0.2644592005224986</v>
       </c>
       <c r="L23">
-        <v>0.1099014410372323</v>
+        <v>0.1246071296733327</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>0.08704134421848408</v>
       </c>
       <c r="N23">
-        <v>0.5655819853457871</v>
+        <v>0.1037411712376066</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
       <c r="P23">
-        <v>0.9702816718928631</v>
+        <v>0.5846114691214979</v>
       </c>
       <c r="Q23">
-        <v>1.699628937966338</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>1.041171256885704</v>
+      </c>
+      <c r="S23">
+        <v>1.504304941520928</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.30693744317432</v>
+        <v>3.205986787739732</v>
       </c>
       <c r="C24">
-        <v>0.490952862854158</v>
+        <v>0.5173781605553813</v>
       </c>
       <c r="D24">
-        <v>0.1529352834451458</v>
+        <v>0.1536018013816971</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>0.719591089215136</v>
+        <v>0.6786814011331117</v>
       </c>
       <c r="G24">
-        <v>0.4419214656388561</v>
+        <v>0.406617055980135</v>
       </c>
       <c r="H24">
-        <v>0.0002180870518622147</v>
+        <v>0.0002224699718087475</v>
       </c>
       <c r="I24">
-        <v>0.002044454482435398</v>
+        <v>0.002348671931741819</v>
       </c>
       <c r="J24">
-        <v>0.3280691907400524</v>
+        <v>0.3348952664471909</v>
       </c>
       <c r="K24">
-        <v>0.300846266797965</v>
+        <v>0.2723676518216074</v>
       </c>
       <c r="L24">
-        <v>0.1052389070399151</v>
+        <v>0.1337244197230074</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>0.08070431515490384</v>
       </c>
       <c r="N24">
-        <v>0.4939136257701904</v>
+        <v>0.09991879524342728</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
       <c r="P24">
-        <v>0.9508781884874224</v>
+        <v>0.5116680694339664</v>
       </c>
       <c r="Q24">
-        <v>1.57319220511971</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>0.9908950711452178</v>
+      </c>
+      <c r="S24">
+        <v>1.463150115714939</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.720863896678281</v>
+        <v>2.648360333776623</v>
       </c>
       <c r="C25">
-        <v>0.4274438182332574</v>
+        <v>0.4429660561654032</v>
       </c>
       <c r="D25">
-        <v>0.1361241305970324</v>
+        <v>0.1364961342427975</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0.6570541554481224</v>
+        <v>0.6255473974465815</v>
       </c>
       <c r="G25">
-        <v>0.3957012763929839</v>
+        <v>0.3594366476127249</v>
       </c>
       <c r="H25">
-        <v>4.80591373677175E-05</v>
+        <v>2.933881835764929E-05</v>
       </c>
       <c r="I25">
-        <v>0.001169215450357086</v>
+        <v>0.0014691423889861</v>
       </c>
       <c r="J25">
-        <v>0.3133436644754823</v>
+        <v>0.3304794630768981</v>
       </c>
       <c r="K25">
-        <v>0.2983598266706338</v>
+        <v>0.2741743041423774</v>
       </c>
       <c r="L25">
-        <v>0.1000898366784977</v>
+        <v>0.1415332962951261</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.07266565914480161</v>
       </c>
       <c r="N25">
-        <v>0.4169489886012343</v>
+        <v>0.0955805079697658</v>
       </c>
       <c r="O25">
         <v>0</v>
       </c>
       <c r="P25">
-        <v>0.9328288464111552</v>
+        <v>0.4316337398751813</v>
       </c>
       <c r="Q25">
-        <v>1.443896985143709</v>
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0.956752328940695</v>
+      </c>
+      <c r="S25">
+        <v>1.359446158756953</v>
       </c>
     </row>
   </sheetData>
